--- a/文档/伟人.xlsx
+++ b/文档/伟人.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Admin\Documents\GitHub\Sistine_civ6mod\文档\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8273B79-3F8D-4CD5-A9DD-8EEA7900ACAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61FA6B90-79D9-43DB-B5EC-518EFF9BEAC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15855" yWindow="4530" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="19410" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="179">
   <si>
     <t>大科学家</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -67,28 +67,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>阿耶波多</t>
-  </si>
-  <si>
-    <t>张衡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>欧几里得</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>希帕蒂娅</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>艾布·卡西姆·扎哈拉维</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>宾根的希尔德加德</t>
-  </si>
-  <si>
     <t>奥马尔·海亚姆</t>
   </si>
   <si>
@@ -244,6 +222,455 @@
   </si>
   <si>
     <t>井深大</t>
+  </si>
+  <si>
+    <t>安东尼奥·何塞·德·苏克雷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安东尼奥·纳里诺</t>
+  </si>
+  <si>
+    <t>弗朗西斯科·德保拉·桑坦德尔</t>
+  </si>
+  <si>
+    <t>格雷格尔·麦格雷格尔</t>
+  </si>
+  <si>
+    <t>何塞·安东尼奥·派斯</t>
+  </si>
+  <si>
+    <t>何塞·菲利克斯·里巴斯</t>
+  </si>
+  <si>
+    <t>曼努埃尔·皮亚尔</t>
+  </si>
+  <si>
+    <t>马里亚诺·蒙蒂勒</t>
+  </si>
+  <si>
+    <t>拉斐尔·乌达内塔</t>
+  </si>
+  <si>
+    <t>圣地亚哥·马里诺</t>
+  </si>
+  <si>
+    <t>阿尔特米西亚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>切斯特·尼米兹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>郑一嫂</t>
+  </si>
+  <si>
+    <t>克兰西·费尔南多</t>
+  </si>
+  <si>
+    <t>斐迪南·麦哲伦</t>
+  </si>
+  <si>
+    <t>弗兰西斯·德雷克</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弗兰茨·冯·希佩尔</t>
+  </si>
+  <si>
+    <t>盖乌斯·杜伊利乌斯</t>
+  </si>
+  <si>
+    <t>葛丽丝·霍普</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>航海家汉诺</t>
+  </si>
+  <si>
+    <t>希墨里俄斯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>霍雷肖·纳尔逊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>若阿金·马奎斯·里斯本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拉斯卡丽娜·布布丽娜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷夫·埃里克森</t>
+  </si>
+  <si>
+    <t>马休·佩里</t>
+  </si>
+  <si>
+    <t>拉金德拉·朱罗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>圣克鲁斯侯爵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>谢尔盖·戈尔什科夫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地米斯托克利</t>
+  </si>
+  <si>
+    <t>东乡平八郎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>郑和</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李舜臣</t>
+  </si>
+  <si>
+    <t>爱达·勒芙蕾丝</t>
+  </si>
+  <si>
+    <t>阿尔瓦·阿尔托</t>
+  </si>
+  <si>
+    <t>毕昇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查尔斯·柯里亚</t>
+  </si>
+  <si>
+    <t>菲利波·布鲁内列斯基</t>
+  </si>
+  <si>
+    <t>古斯塔夫·埃菲尔</t>
+  </si>
+  <si>
+    <t>伊姆霍特普</t>
+  </si>
+  <si>
+    <t>米利都的伊西多尔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>圣乔治的詹姆斯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>詹姆斯·瓦特</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>简·德鲁</t>
+  </si>
+  <si>
+    <t>约翰·罗布林</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>约瑟夫·帕克斯顿</t>
+  </si>
+  <si>
+    <t>丹下健三</t>
+  </si>
+  <si>
+    <t>列奥纳多·达·芬奇</t>
+  </si>
+  <si>
+    <t>米玛·希南</t>
+  </si>
+  <si>
+    <t>尼古拉·特斯拉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>罗伯特·戈达德</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>谢尔盖·科罗廖夫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沙·贾汗</t>
+  </si>
+  <si>
+    <t>沃纳·冯·布劳恩</t>
+  </si>
+  <si>
+    <t>埃塞尔弗莱德</t>
+  </si>
+  <si>
+    <t>艾哈迈德·沙阿·马苏德</t>
+  </si>
+  <si>
+    <t>阿米娜（扎造女王）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>布狄卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丹达拉</t>
+  </si>
+  <si>
+    <t>道格拉斯·麦克阿瑟</t>
+  </si>
+  <si>
+    <t>德怀特·艾森豪威尔</t>
+  </si>
+  <si>
+    <t>熙德</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>格奥尔吉·朱可夫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>古斯塔夫·阿道夫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汉尼拔·巴卡</t>
+  </si>
+  <si>
+    <t>贞德</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>约翰·莫纳什</t>
+  </si>
+  <si>
+    <t>何塞·德·圣马丁</t>
+  </si>
+  <si>
+    <t>玛林娜·拉斯科娃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拿破仑·波拿巴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>詹西女王</t>
+  </si>
+  <si>
+    <t>萨摩里·杜尔</t>
+  </si>
+  <si>
+    <t>苏迪曼</t>
+  </si>
+  <si>
+    <t>孙子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>帖木儿</t>
+  </si>
+  <si>
+    <t>征侧</t>
+  </si>
+  <si>
+    <t>图帕克·阿马鲁</t>
+  </si>
+  <si>
+    <t>维贾亚·维玛拉拉特</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巨作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大文学家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大美术家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大音乐家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿姆里塔·谢吉尔</t>
+  </si>
+  <si>
+    <t>安德烈·卢布廖夫</t>
+  </si>
+  <si>
+    <t>安杰莉卡·考夫曼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鲍里斯·奥洛夫斯基</t>
+  </si>
+  <si>
+    <t>克劳德·莫奈</t>
+  </si>
+  <si>
+    <t>多纳泰罗</t>
+  </si>
+  <si>
+    <t>爱慕妮亚·刘易斯</t>
+  </si>
+  <si>
+    <t>/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>海华沙与明尼哈哈之婚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>埃尔·格列柯</t>
+  </si>
+  <si>
+    <t>托莱多之景、博士来拜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>古斯塔夫·克里姆特</t>
+  </si>
+  <si>
+    <t>向日葵农场花园、开默城堡公园中的大道</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长谷川等伯</t>
+  </si>
+  <si>
+    <t>松林图、枫图、花鸟图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>耶罗尼米斯·博斯</t>
+  </si>
+  <si>
+    <t>张承业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三人问年图、公鸡、双马人物图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡马尔·乌丁·贝赫扎德</t>
+  </si>
+  <si>
+    <t>葛饰北斋</t>
+  </si>
+  <si>
+    <t>信州诹访湖</t>
+  </si>
+  <si>
+    <t>玛丽安妮·科洛</t>
+  </si>
+  <si>
+    <t>玛丽·卡萨特</t>
+  </si>
+  <si>
+    <t>米开朗基罗</t>
+  </si>
+  <si>
+    <t>仇英</t>
+  </si>
+  <si>
+    <t>莲溪渔隐图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伦勃朗·凡·莱因</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>索福尼斯巴·安圭索拉</t>
+  </si>
+  <si>
+    <t>提香</t>
+  </si>
+  <si>
+    <t>莎乐美和施洗约翰的头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文森特·梵高</t>
+  </si>
+  <si>
+    <t>星夜、夜间的露天咖啡座、夜间咖啡馆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>瓦西里·康定斯基</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缪斯女神萨拉·哈罗普</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>荣耀救主</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新娘的梳妆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巨作（勘误）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>触发“天文导航”、“数学”和“工程”的尤里卡。如果尤里卡已触发，则解锁科技。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张衡（数学家、天文学家）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿耶波多（天文学家，制定历法）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>欧几里得（数学家，《几何原本》）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>为随机的3个古典时代或中世纪科技启动尤里卡时刻。</t>
+  </si>
+  <si>
+    <t>为中世纪时期的数学和1个随机科技启动尤里卡时刻。</t>
+  </si>
+  <si>
+    <t>立即在该区域建造1座图书馆。
+图书馆+1  科技值。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>希帕蒂娅（数学家、天文学家、哲学家、 编注托勒密与欧几里得的著作）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>艾布·卡西姆·扎哈拉维（医学家，外科学之父）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宾根的希尔德加德（博物学家、天主教圣人）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -295,12 +722,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -577,22 +1007,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R50"/>
+  <dimension ref="A1:X50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C28" sqref="C28"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="25" customWidth="1"/>
-    <col min="2" max="18" width="20.625" customWidth="1"/>
+    <col min="2" max="2" width="37.125" customWidth="1"/>
+    <col min="3" max="18" width="20.625" customWidth="1"/>
+    <col min="19" max="19" width="18.875" customWidth="1"/>
+    <col min="20" max="20" width="36.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -647,197 +1077,599 @@
       <c r="R1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="S1" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J2" t="s">
+        <v>104</v>
+      </c>
+      <c r="M2" t="s">
+        <v>83</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="S2" t="s">
+        <v>132</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" t="s">
+        <v>51</v>
+      </c>
+      <c r="J3" t="s">
+        <v>105</v>
+      </c>
+      <c r="M3" t="s">
+        <v>84</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="S3" t="s">
+        <v>133</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B4" t="s">
+        <v>174</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" t="s">
+        <v>52</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="P4" t="s">
+        <v>62</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" ht="27" x14ac:dyDescent="0.15">
+      <c r="A5" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="D5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" t="s">
+        <v>53</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="M5" t="s">
+        <v>86</v>
+      </c>
+      <c r="P5" t="s">
+        <v>63</v>
+      </c>
+      <c r="S5" t="s">
+        <v>135</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A6" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" t="s">
+        <v>54</v>
+      </c>
+      <c r="J6" t="s">
+        <v>108</v>
+      </c>
+      <c r="M6" t="s">
+        <v>87</v>
+      </c>
+      <c r="P6" t="s">
+        <v>64</v>
+      </c>
+      <c r="S6" t="s">
+        <v>136</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A7" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" t="s">
+        <v>55</v>
+      </c>
+      <c r="J7" t="s">
+        <v>109</v>
+      </c>
+      <c r="M7" t="s">
+        <v>88</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="S7" t="s">
+        <v>137</v>
+      </c>
+      <c r="T7" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" t="s">
+        <v>56</v>
+      </c>
+      <c r="J8" t="s">
+        <v>110</v>
+      </c>
+      <c r="M8" t="s">
+        <v>89</v>
+      </c>
+      <c r="P8" t="s">
+        <v>66</v>
+      </c>
+      <c r="S8" t="s">
+        <v>138</v>
+      </c>
+      <c r="T8" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="1" t="s">
+      <c r="D9" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A4" s="1" t="s">
+      <c r="G9" t="s">
+        <v>57</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="P9" t="s">
+        <v>67</v>
+      </c>
+      <c r="S9" t="s">
+        <v>141</v>
+      </c>
+      <c r="T9" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D10" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A5" s="1" t="s">
+      <c r="G10" t="s">
+        <v>58</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="S10" t="s">
+        <v>143</v>
+      </c>
+      <c r="T10" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
         <v>11</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D11" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A6" s="1" t="s">
+      <c r="G11" t="s">
+        <v>59</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="P11" t="s">
+        <v>69</v>
+      </c>
+      <c r="S11" t="s">
+        <v>145</v>
+      </c>
+      <c r="T11" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
+      <c r="J12" t="s">
+        <v>114</v>
+      </c>
+      <c r="M12" t="s">
+        <v>93</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="S12" t="s">
+        <v>147</v>
+      </c>
+      <c r="T12" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
+      <c r="J13" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="S13" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="T13" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A14" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D14" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A9" t="s">
+      <c r="J14" t="s">
+        <v>116</v>
+      </c>
+      <c r="M14" t="s">
+        <v>95</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="S14" t="s">
+        <v>150</v>
+      </c>
+      <c r="T14" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A15" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D15" s="1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A10" s="1" t="s">
+      <c r="J15" t="s">
+        <v>117</v>
+      </c>
+      <c r="M15" t="s">
+        <v>96</v>
+      </c>
+      <c r="P15" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="S15" t="s">
+        <v>151</v>
+      </c>
+      <c r="T15" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A16" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D16" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A11" t="s">
+      <c r="J16" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="M16" t="s">
+        <v>97</v>
+      </c>
+      <c r="P16" t="s">
+        <v>74</v>
+      </c>
+      <c r="S16" t="s">
+        <v>153</v>
+      </c>
+      <c r="T16" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A17" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D17" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A12" s="1" t="s">
+      <c r="J17" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="M17" t="s">
+        <v>98</v>
+      </c>
+      <c r="P17" t="s">
+        <v>75</v>
+      </c>
+      <c r="S17" t="s">
+        <v>154</v>
+      </c>
+      <c r="T17" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A18" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D18" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A13" s="1" t="s">
+      <c r="J18" t="s">
+        <v>120</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="P18" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="S18" t="s">
+        <v>155</v>
+      </c>
+      <c r="T18" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A19" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D19" s="1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A14" s="1" t="s">
+      <c r="J19" t="s">
+        <v>121</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="P19" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="S19" t="s">
+        <v>156</v>
+      </c>
+      <c r="T19" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A20" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D20" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A15" s="1" t="s">
+      <c r="J20" t="s">
+        <v>122</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="P20" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="S20" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="T20" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A21" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="M21" t="s">
+        <v>102</v>
+      </c>
+      <c r="P21" t="s">
+        <v>79</v>
+      </c>
+      <c r="S21" t="s">
+        <v>159</v>
+      </c>
+      <c r="T21" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A16" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D16" s="1" t="s">
+      <c r="D22" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A17" s="1" t="s">
+      <c r="J22" t="s">
+        <v>124</v>
+      </c>
+      <c r="M22" t="s">
+        <v>103</v>
+      </c>
+      <c r="P22" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="S22" t="s">
+        <v>160</v>
+      </c>
+      <c r="T22" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A23" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D23" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A18" s="1" t="s">
+      <c r="J23" t="s">
+        <v>125</v>
+      </c>
+      <c r="P23" t="s">
+        <v>82</v>
+      </c>
+      <c r="S23" t="s">
+        <v>162</v>
+      </c>
+      <c r="T23" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A24" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D24" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A19" s="1" t="s">
+      <c r="J24" t="s">
+        <v>126</v>
+      </c>
+      <c r="P24" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="S24" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="T24" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A25" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D25" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A20" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A21" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A22" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A23" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A24" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D24" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A25" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D25" t="s">
-        <v>55</v>
+      <c r="J25" s="1" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="49" ht="70.900000000000006" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -845,5 +1677,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/文档/伟人.xlsx
+++ b/文档/伟人.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Admin\Documents\GitHub\Sistine_civ6mod\文档\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD88BE63-72F8-43F0-9EBF-AB820513987C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC2645C9-3B44-40B6-B07D-5849B664EAA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3570" yWindow="3810" windowWidth="19935" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -361,9 +361,6 @@
     <t>圣地相邻加科技。信仰产出的15%转换为科技。</t>
   </si>
   <si>
-    <t>马可·波罗</t>
-  </si>
-  <si>
     <t>张骞，但多一个商人</t>
   </si>
   <si>
@@ -421,15 +418,9 @@
     <t>2尤里卡，1随机市政</t>
   </si>
   <si>
-    <t>皮耶罗·德·巴尔迪</t>
-  </si>
-  <si>
     <t>200金1使者</t>
   </si>
   <si>
-    <t>3使者，国库金币3%利息</t>
-  </si>
-  <si>
     <t>曼努埃尔·皮亚尔</t>
   </si>
   <si>
@@ -484,9 +475,6 @@
     <t>目标城邦3使者，无视边界</t>
   </si>
   <si>
-    <t>成为目标城邦的宗主国（不移除其他玩家的使者）</t>
-  </si>
-  <si>
     <t>马里亚诺·蒙蒂勒</t>
   </si>
   <si>
@@ -604,9 +592,6 @@
     <t>200金2使者</t>
   </si>
   <si>
-    <t>4使者，矿山+2金币</t>
-  </si>
-  <si>
     <t>圣地亚哥·马里诺</t>
   </si>
   <si>
@@ -652,15 +637,6 @@
     <t>1图书馆1大学，大学+2瓶</t>
   </si>
   <si>
-    <t>托达·马尔拉贾（莫卧儿王朝藩王，建立标准的货币和度量衡制度）</t>
-  </si>
-  <si>
-    <t>1使者，国内商路每区域0.5金币</t>
-  </si>
-  <si>
-    <t>1使者，商路终点每区域1金币</t>
-  </si>
-  <si>
     <t>所有总司令的能力不再和大军叠加。</t>
   </si>
   <si>
@@ -1006,9 +982,6 @@
     <t>所有文明的外交能见度+1</t>
   </si>
   <si>
-    <t>所有文明的外交能见度+1，商路终点每区域1金币</t>
-  </si>
-  <si>
     <t>萨摩里·杜尔</t>
   </si>
   <si>
@@ -1045,9 +1018,6 @@
     <t>每格雨林800瓶</t>
   </si>
   <si>
-    <t>赫莲娜·鲁宾斯坦（现代美容行业奠基人之一）</t>
-  </si>
-  <si>
     <t>2单位化妆品（+4宜居）</t>
   </si>
   <si>
@@ -1181,9 +1151,6 @@
   </si>
   <si>
     <t>地外任务的尤里卡或科技，以及1个免费科技。2000太空计划锤</t>
-  </si>
-  <si>
-    <t>雅诗·兰黛</t>
   </si>
   <si>
     <t>2单位香水（+6宜居）</t>
@@ -1323,6 +1290,50 @@
   </si>
   <si>
     <t>斯蒂芬妮·柯欧拉克（化学家，凯芙拉纤维发明人）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2使者，国库金币3%利息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2使者，商路终点每区域1金币</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1使者，国内商路每区域0.5金币</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3使者，矿山+1金币</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>成为目标城邦的宗主国（不移除其他玩家的使者）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有文明的外交能见度+1，商路终点每区域1金币</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>马可·波罗</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>皮耶罗·德·巴尔迪</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>托达·马尔拉贾（莫卧儿王朝藩王，建立标准的货币和度量衡制度）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>赫莲娜·鲁宾斯坦（现代美容行业奠基人之一）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>雅诗·兰黛</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1330,7 +1341,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1359,8 +1370,16 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1370,6 +1389,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1388,7 +1413,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1404,13 +1429,31 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1690,29 +1733,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="25" customWidth="1"/>
+    <col min="1" max="1" width="25" style="9" customWidth="1"/>
     <col min="2" max="2" width="30.875" customWidth="1"/>
     <col min="3" max="3" width="36.25" customWidth="1"/>
-    <col min="4" max="4" width="20.625" customWidth="1"/>
+    <col min="4" max="4" width="20.625" style="9" customWidth="1"/>
     <col min="5" max="5" width="34.875" customWidth="1"/>
     <col min="6" max="6" width="24" customWidth="1"/>
-    <col min="7" max="18" width="20.625" customWidth="1"/>
-    <col min="19" max="19" width="20.25" customWidth="1"/>
-    <col min="20" max="20" width="36.125" customWidth="1"/>
-    <col min="21" max="21" width="24.75" customWidth="1"/>
-    <col min="23" max="23" width="22.875" customWidth="1"/>
+    <col min="7" max="7" width="20.625" style="9" customWidth="1"/>
+    <col min="8" max="9" width="20.625" customWidth="1"/>
+    <col min="10" max="10" width="20.625" style="9" customWidth="1"/>
+    <col min="11" max="12" width="20.625" customWidth="1"/>
+    <col min="13" max="13" width="20.625" style="9" customWidth="1"/>
+    <col min="14" max="15" width="20.625" customWidth="1"/>
+    <col min="16" max="16" width="20.625" style="9" customWidth="1"/>
+    <col min="17" max="18" width="20.625" customWidth="1"/>
+    <col min="19" max="19" width="20.25" style="9" customWidth="1"/>
+    <col min="20" max="20" width="23" customWidth="1"/>
+    <col min="21" max="21" width="24.75" style="9" customWidth="1"/>
+    <col min="23" max="23" width="22.875" style="9" customWidth="1"/>
     <col min="24" max="24" width="17.25" customWidth="1"/>
     <col min="25" max="25" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
@@ -1721,7 +1771,7 @@
       <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="10" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
@@ -1730,7 +1780,7 @@
       <c r="F1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="10" t="s">
         <v>4</v>
       </c>
       <c r="H1" s="3" t="s">
@@ -1739,7 +1789,7 @@
       <c r="I1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="10" t="s">
         <v>5</v>
       </c>
       <c r="K1" s="3" t="s">
@@ -1748,7 +1798,7 @@
       <c r="L1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="10" t="s">
         <v>6</v>
       </c>
       <c r="N1" s="3" t="s">
@@ -1757,7 +1807,7 @@
       <c r="O1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="P1" s="10" t="s">
         <v>7</v>
       </c>
       <c r="Q1" s="3" t="s">
@@ -1766,19 +1816,19 @@
       <c r="R1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="S1" s="10" t="s">
         <v>8</v>
       </c>
       <c r="T1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="U1" s="10" t="s">
         <v>10</v>
       </c>
       <c r="V1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="W1" s="10" t="s">
         <v>12</v>
       </c>
       <c r="X1" s="3" t="s">
@@ -1786,25 +1836,25 @@
       </c>
     </row>
     <row r="2" spans="1:25" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="10" t="s">
         <v>19</v>
       </c>
       <c r="H2" s="2" t="s">
@@ -1813,7 +1863,7 @@
       <c r="I2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="10" t="s">
         <v>21</v>
       </c>
       <c r="K2" s="2" t="s">
@@ -1822,7 +1872,7 @@
       <c r="L2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="M2" t="s">
+      <c r="M2" s="9" t="s">
         <v>23</v>
       </c>
       <c r="N2" s="2" t="s">
@@ -1831,7 +1881,7 @@
       <c r="O2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="3" t="s">
+      <c r="P2" s="10" t="s">
         <v>25</v>
       </c>
       <c r="Q2" s="2" t="s">
@@ -1840,42 +1890,42 @@
       <c r="R2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="S2" t="s">
+      <c r="S2" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="T2" s="3" t="s">
+      <c r="T2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="U2" s="3" t="s">
+      <c r="U2" s="10" t="s">
         <v>30</v>
       </c>
       <c r="V2" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="W2" t="s">
+      <c r="W2" s="9" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:25" ht="27" x14ac:dyDescent="0.15">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="6" t="s">
         <v>33</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="6" t="s">
         <v>36</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="9" t="s">
         <v>39</v>
       </c>
       <c r="H3" s="2" t="s">
@@ -1884,7 +1934,7 @@
       <c r="I3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="J3" s="10" t="s">
         <v>41</v>
       </c>
       <c r="K3" s="2" t="s">
@@ -1893,7 +1943,7 @@
       <c r="L3" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="M3" s="10" t="s">
         <v>44</v>
       </c>
       <c r="N3" s="2" t="s">
@@ -1902,7 +1952,7 @@
       <c r="O3" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="P3" t="s">
+      <c r="P3" s="9" t="s">
         <v>47</v>
       </c>
       <c r="Q3" s="3" t="s">
@@ -1911,19 +1961,19 @@
       <c r="R3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="S3" t="s">
+      <c r="S3" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="T3" s="3" t="s">
+      <c r="T3" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="U3" t="s">
+      <c r="U3" s="9" t="s">
         <v>51</v>
       </c>
       <c r="V3" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="W3" t="s">
+      <c r="W3" s="9" t="s">
         <v>53</v>
       </c>
       <c r="X3" t="s">
@@ -1931,25 +1981,25 @@
       </c>
     </row>
     <row r="4" spans="1:25" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="6" t="s">
         <v>55</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="6" t="s">
         <v>58</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="9" t="s">
         <v>60</v>
       </c>
       <c r="H4" s="2" t="s">
@@ -1958,7 +2008,7 @@
       <c r="I4" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="J4" t="s">
+      <c r="J4" s="9" t="s">
         <v>63</v>
       </c>
       <c r="K4" s="2" t="s">
@@ -1967,7 +2017,7 @@
       <c r="L4" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="M4" s="10" t="s">
         <v>64</v>
       </c>
       <c r="N4" s="2" t="s">
@@ -1976,7 +2026,7 @@
       <c r="O4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="P4" t="s">
+      <c r="P4" s="9" t="s">
         <v>66</v>
       </c>
       <c r="Q4" s="2" t="s">
@@ -1985,39 +2035,39 @@
       <c r="R4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="S4" s="3" t="s">
+      <c r="S4" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="T4" s="3" t="s">
+      <c r="T4" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="U4" s="3" t="s">
+      <c r="U4" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="W4" t="s">
+      <c r="W4" s="9" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:25" ht="54" x14ac:dyDescent="0.15">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="6" t="s">
         <v>72</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="8" t="s">
         <v>74</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="9" t="s">
         <v>76</v>
       </c>
       <c r="H5" s="2" t="s">
@@ -2026,7 +2076,7 @@
       <c r="I5" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="J5" t="s">
+      <c r="J5" s="9" t="s">
         <v>79</v>
       </c>
       <c r="K5" s="2" t="s">
@@ -2035,7 +2085,7 @@
       <c r="L5" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="M5" s="3" t="s">
+      <c r="M5" s="10" t="s">
         <v>82</v>
       </c>
       <c r="N5" s="2" t="s">
@@ -2044,7 +2094,7 @@
       <c r="O5" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="P5" t="s">
+      <c r="P5" s="9" t="s">
         <v>85</v>
       </c>
       <c r="Q5" s="3" t="s">
@@ -2053,16 +2103,16 @@
       <c r="R5" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="S5" t="s">
+      <c r="S5" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="T5" s="3" t="s">
+      <c r="T5" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="U5" s="3" t="s">
+      <c r="U5" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="W5" t="s">
+      <c r="W5" s="9" t="s">
         <v>90</v>
       </c>
       <c r="X5" s="3" t="s">
@@ -2070,25 +2120,25 @@
       </c>
     </row>
     <row r="6" spans="1:25" ht="27" x14ac:dyDescent="0.15">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="6" t="s">
         <v>92</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="6" t="s">
         <v>95</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="9" t="s">
         <v>97</v>
       </c>
       <c r="H6" s="2" t="s">
@@ -2097,7 +2147,7 @@
       <c r="I6" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="J6" t="s">
+      <c r="J6" s="9" t="s">
         <v>100</v>
       </c>
       <c r="K6" s="2" t="s">
@@ -2106,7 +2156,7 @@
       <c r="L6" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="M6" t="s">
+      <c r="M6" s="9" t="s">
         <v>103</v>
       </c>
       <c r="N6" s="2" t="s">
@@ -2115,7 +2165,7 @@
       <c r="O6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="P6" s="3" t="s">
+      <c r="P6" s="10" t="s">
         <v>105</v>
       </c>
       <c r="Q6" s="2" t="s">
@@ -2124,124 +2174,124 @@
       <c r="R6" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="S6" t="s">
+      <c r="S6" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="T6" s="3" t="s">
+      <c r="T6" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="U6" t="s">
+      <c r="U6" s="9" t="s">
         <v>108</v>
       </c>
       <c r="V6" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="W6" t="s">
+      <c r="W6" s="9" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="7" spans="1:25" ht="27" x14ac:dyDescent="0.15">
       <c r="A7" s="7" t="s">
-        <v>429</v>
+        <v>418</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="F7" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G7" t="s">
+      <c r="H7" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="I7" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="J7" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="J7" s="3" t="s">
+      <c r="K7" s="2" t="s">
         <v>118</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>119</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="M7" t="s">
+      <c r="M7" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="N7" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="N7" s="2" t="s">
+      <c r="O7" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="O7" s="4" t="s">
+      <c r="P7" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="P7" t="s">
+      <c r="Q7" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="Q7" s="2" t="s">
+      <c r="R7" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="R7" s="2" t="s">
+      <c r="S7" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="S7" t="s">
+      <c r="T7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="U7" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="T7" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="U7" t="s">
+      <c r="W7" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="W7" s="5" t="s">
+      <c r="X7" s="4" t="s">
         <v>128</v>
-      </c>
-      <c r="X7" s="4" t="s">
-        <v>129</v>
       </c>
       <c r="Y7" s="2"/>
     </row>
     <row r="8" spans="1:25" ht="27" x14ac:dyDescent="0.15">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="C8" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="D8" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="F8" s="12" t="s">
+        <v>421</v>
+      </c>
+      <c r="G8" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="H8" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="I8" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="G8" t="s">
+      <c r="J8" s="9" t="s">
         <v>136</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="J8" t="s">
-        <v>139</v>
       </c>
       <c r="K8" s="2" t="s">
         <v>106</v>
@@ -2249,1067 +2299,1075 @@
       <c r="L8" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="M8" t="s">
+      <c r="M8" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="O8" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="P8" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="N8" s="2" t="s">
+      <c r="Q8" s="2" t="s">
         <v>141</v>
-      </c>
-      <c r="O8" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="P8" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="Q8" s="2" t="s">
-        <v>144</v>
       </c>
       <c r="R8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="S8" t="s">
+      <c r="S8" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="T8" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="U8" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="W8" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="T8" s="3" t="s">
+      <c r="X8" s="3" t="s">
         <v>146</v>
-      </c>
-      <c r="U8" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="W8" t="s">
-        <v>148</v>
-      </c>
-      <c r="X8" s="3" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="9" spans="1:25" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>413</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="F9" s="12" t="s">
+        <v>425</v>
+      </c>
+      <c r="G9" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="C9" s="7" t="s">
-        <v>424</v>
-      </c>
-      <c r="D9" s="1" t="s">
+      <c r="H9" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="I9" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="J9" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="G9" t="s">
+      <c r="K9" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="L9" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="I9" s="2" t="s">
+      <c r="M9" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="J9" s="3" t="s">
+      <c r="N9" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="K9" s="2" t="s">
+      <c r="O9" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="L9" s="2" t="s">
+      <c r="P9" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="M9" t="s">
+      <c r="Q9" s="2" t="s">
         <v>161</v>
-      </c>
-      <c r="N9" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="O9" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="P9" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="Q9" s="2" t="s">
-        <v>165</v>
       </c>
       <c r="R9" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="S9" t="s">
+      <c r="S9" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="T9" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="U9" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="W9" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="X9" s="2" t="s">
         <v>166</v>
-      </c>
-      <c r="T9" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="U9" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="W9" t="s">
-        <v>169</v>
-      </c>
-      <c r="X9" s="2" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="10" spans="1:25" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="E10" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="F10" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" s="9" t="s">
         <v>172</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="H10" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="I10" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="J10" s="10" t="s">
         <v>175</v>
       </c>
-      <c r="F10" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G10" t="s">
+      <c r="K10" s="2" t="s">
         <v>176</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>180</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="M10" t="s">
-        <v>181</v>
+      <c r="M10" s="9" t="s">
+        <v>177</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="O10" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="P10" s="3" t="s">
-        <v>183</v>
+      <c r="P10" s="10" t="s">
+        <v>179</v>
       </c>
       <c r="Q10" s="2" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="R10" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="S10" t="s">
-        <v>185</v>
-      </c>
-      <c r="T10" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="U10" t="s">
-        <v>187</v>
-      </c>
-      <c r="W10" s="3" t="s">
-        <v>188</v>
+      <c r="S10" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="T10" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="U10" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="W10" s="10" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="11" spans="1:25" ht="27" x14ac:dyDescent="0.15">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="E11" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="F11" s="12" t="s">
+        <v>424</v>
+      </c>
+      <c r="G11" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="H11" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="I11" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="J11" s="10" t="s">
         <v>193</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="K11" s="2" t="s">
         <v>194</v>
-      </c>
-      <c r="G11" t="s">
-        <v>195</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>199</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="M11" s="3" t="s">
-        <v>200</v>
+      <c r="M11" s="10" t="s">
+        <v>195</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="O11" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="P11" s="3" t="s">
-        <v>202</v>
+      <c r="P11" s="10" t="s">
+        <v>197</v>
       </c>
       <c r="Q11" s="2" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="R11" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="S11" t="s">
-        <v>204</v>
-      </c>
-      <c r="T11" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="U11" t="s">
-        <v>206</v>
-      </c>
-      <c r="W11" t="s">
-        <v>207</v>
+      <c r="S11" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="T11" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="U11" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="W11" s="9" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="12" spans="1:25" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>423</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>422</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="J12" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="L12" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="M12" s="9" t="s">
         <v>209</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" s="2" t="s">
+      <c r="N12" s="2" t="s">
         <v>210</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="J12" t="s">
-        <v>214</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="L12" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="M12" t="s">
-        <v>217</v>
-      </c>
-      <c r="N12" s="2" t="s">
-        <v>218</v>
       </c>
       <c r="O12" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="P12" t="s">
-        <v>219</v>
+      <c r="P12" s="9" t="s">
+        <v>211</v>
       </c>
       <c r="Q12" s="2" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="R12" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="S12" t="s">
-        <v>221</v>
-      </c>
-      <c r="T12" s="3" t="s">
+      <c r="S12" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="T12" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="U12" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="W12" t="s">
-        <v>223</v>
+      <c r="U12" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="W12" s="9" t="s">
+        <v>215</v>
       </c>
       <c r="X12" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="13" spans="1:25" ht="27" x14ac:dyDescent="0.15">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="J13" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="L13" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="M13" s="9" t="s">
         <v>225</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="N13" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="O13" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="P13" s="9" t="s">
         <v>228</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="Q13" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="J13" t="s">
+      <c r="R13" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="K13" s="2" t="s">
+      <c r="S13" s="10" t="s">
         <v>231</v>
       </c>
-      <c r="L13" s="2" t="s">
+      <c r="T13" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="M13" t="s">
+      <c r="U13" s="9" t="s">
         <v>233</v>
       </c>
-      <c r="N13" s="3" t="s">
+      <c r="W13" s="9" t="s">
         <v>234</v>
       </c>
-      <c r="O13" s="4" t="s">
+      <c r="X13" s="3" t="s">
         <v>235</v>
-      </c>
-      <c r="P13" t="s">
-        <v>236</v>
-      </c>
-      <c r="Q13" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="R13" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="S13" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="T13" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="U13" t="s">
-        <v>241</v>
-      </c>
-      <c r="W13" t="s">
-        <v>242</v>
-      </c>
-      <c r="X13" s="3" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="14" spans="1:25" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A14" s="2" t="s">
-        <v>244</v>
+      <c r="A14" s="6" t="s">
+        <v>236</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>247</v>
+        <v>237</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>239</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>250</v>
+        <v>240</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>241</v>
+      </c>
+      <c r="J14" s="10" t="s">
+        <v>242</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="L14" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="M14" s="3" t="s">
+      <c r="M14" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="O14" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="P14" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="Q14" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="R14" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="S14" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="T14" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="U14" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="W14" s="9" t="s">
         <v>252</v>
-      </c>
-      <c r="N14" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="O14" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="P14" t="s">
-        <v>255</v>
-      </c>
-      <c r="Q14" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="R14" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="S14" t="s">
-        <v>258</v>
-      </c>
-      <c r="T14" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="U14" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="W14" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="15" spans="1:25" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A15" s="2" t="s">
-        <v>261</v>
+      <c r="A15" s="6" t="s">
+        <v>253</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>264</v>
+        <v>254</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>256</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="F15" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="F15" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="J15" t="s">
-        <v>266</v>
+      <c r="J15" s="9" t="s">
+        <v>258</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="L15" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="M15" s="3" t="s">
+      <c r="M15" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="O15" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="P15" s="10" t="s">
+        <v>263</v>
+      </c>
+      <c r="Q15" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="R15" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="S15" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="T15" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="U15" s="10" t="s">
         <v>268</v>
       </c>
-      <c r="N15" s="2" t="s">
+      <c r="W15" s="9" t="s">
         <v>269</v>
       </c>
-      <c r="O15" s="4" t="s">
+      <c r="X15" s="2" t="s">
         <v>270</v>
-      </c>
-      <c r="P15" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="Q15" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="R15" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="S15" t="s">
-        <v>274</v>
-      </c>
-      <c r="T15" t="s">
-        <v>275</v>
-      </c>
-      <c r="U15" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="W15" t="s">
-        <v>277</v>
-      </c>
-      <c r="X15" s="2" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="16" spans="1:25" ht="27" x14ac:dyDescent="0.15">
-      <c r="A16" s="2" t="s">
-        <v>279</v>
+      <c r="A16" s="6" t="s">
+        <v>271</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>282</v>
+        <v>272</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>273</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>274</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="F16" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="F16" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="J16" t="s">
-        <v>284</v>
+      <c r="J16" s="9" t="s">
+        <v>276</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="L16" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="M16" t="s">
-        <v>286</v>
+      <c r="M16" s="9" t="s">
+        <v>278</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="O16" s="4" t="s">
-        <v>287</v>
-      </c>
-      <c r="P16" s="3" t="s">
-        <v>288</v>
+        <v>279</v>
+      </c>
+      <c r="P16" s="10" t="s">
+        <v>280</v>
       </c>
       <c r="Q16" s="2" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="R16" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="S16" t="s">
-        <v>290</v>
-      </c>
-      <c r="T16" s="3" t="s">
+      <c r="S16" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="T16" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="U16" t="s">
-        <v>291</v>
-      </c>
-      <c r="W16" t="s">
-        <v>292</v>
+      <c r="U16" s="9" t="s">
+        <v>283</v>
+      </c>
+      <c r="W16" s="9" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="17" spans="1:24" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A17" s="2" t="s">
-        <v>293</v>
+      <c r="A17" s="6" t="s">
+        <v>285</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>296</v>
+        <v>286</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>287</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>288</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="F17" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="F17" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="J17" t="s">
-        <v>298</v>
+      <c r="J17" s="9" t="s">
+        <v>290</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="L17" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="M17" s="3" t="s">
-        <v>300</v>
+      <c r="M17" s="10" t="s">
+        <v>292</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="O17" s="4" t="s">
-        <v>302</v>
-      </c>
-      <c r="P17" t="s">
-        <v>303</v>
+        <v>294</v>
+      </c>
+      <c r="P17" s="9" t="s">
+        <v>295</v>
       </c>
       <c r="Q17" s="2" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="R17" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="S17" t="s">
-        <v>305</v>
-      </c>
-      <c r="T17" s="3" t="s">
+      <c r="S17" s="9" t="s">
+        <v>297</v>
+      </c>
+      <c r="T17" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="U17" t="s">
-        <v>306</v>
-      </c>
-      <c r="W17" s="2" t="s">
-        <v>307</v>
+      <c r="U17" s="9" t="s">
+        <v>298</v>
+      </c>
+      <c r="W17" s="6" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="18" spans="1:24" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>414</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>415</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>301</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="J18" s="10" t="s">
+        <v>303</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="M18" s="10" t="s">
+        <v>306</v>
+      </c>
+      <c r="N18" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="O18" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="B18" s="7" t="s">
-        <v>425</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>426</v>
-      </c>
-      <c r="D18" s="1" t="s">
+      <c r="P18" s="9" t="s">
         <v>309</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="Q18" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="F18" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J18" s="3" t="s">
+      <c r="R18" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="S18" s="9" t="s">
         <v>311</v>
       </c>
-      <c r="K18" s="2" t="s">
+      <c r="T18" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="U18" s="9" t="s">
         <v>312</v>
       </c>
-      <c r="L18" s="2" t="s">
+      <c r="V18" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="M18" s="3" t="s">
+      <c r="W18" s="10" t="s">
         <v>314</v>
       </c>
-      <c r="N18" s="3" t="s">
+      <c r="X18" s="3" t="s">
         <v>315</v>
-      </c>
-      <c r="O18" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="P18" t="s">
-        <v>317</v>
-      </c>
-      <c r="Q18" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="R18" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="S18" t="s">
-        <v>319</v>
-      </c>
-      <c r="T18" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="U18" t="s">
-        <v>320</v>
-      </c>
-      <c r="V18" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="W18" s="3" t="s">
-        <v>322</v>
-      </c>
-      <c r="X18" s="3" t="s">
-        <v>323</v>
       </c>
     </row>
     <row r="19" spans="1:24" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="6" t="s">
+        <v>316</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>416</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>426</v>
+      </c>
+      <c r="J19" s="9" t="s">
+        <v>320</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="M19" s="9" t="s">
+        <v>322</v>
+      </c>
+      <c r="N19" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="O19" s="4" t="s">
         <v>324</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="P19" s="10" t="s">
         <v>325</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>427</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>327</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="J19" t="s">
-        <v>329</v>
-      </c>
-      <c r="K19" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="L19" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="M19" t="s">
-        <v>331</v>
-      </c>
-      <c r="N19" s="3" t="s">
-        <v>332</v>
-      </c>
-      <c r="O19" s="4" t="s">
-        <v>333</v>
-      </c>
-      <c r="P19" s="3" t="s">
-        <v>334</v>
       </c>
       <c r="Q19" s="2" t="s">
         <v>80</v>
       </c>
       <c r="R19" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="S19" t="s">
-        <v>336</v>
-      </c>
-      <c r="T19" s="3" t="s">
-        <v>337</v>
-      </c>
-      <c r="U19" t="s">
-        <v>338</v>
+        <v>326</v>
+      </c>
+      <c r="S19" s="9" t="s">
+        <v>327</v>
+      </c>
+      <c r="T19" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="U19" s="9" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="20" spans="1:24" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A20" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>331</v>
+      </c>
+      <c r="D20" s="7" t="s">
         <v>430</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="E20" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="F20" s="13" t="s">
+        <v>333</v>
+      </c>
+      <c r="J20" s="9" t="s">
+        <v>334</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="M20" s="9" t="s">
+        <v>336</v>
+      </c>
+      <c r="N20" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="O20" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="P20" s="10" t="s">
         <v>339</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="Q20" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="R20" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="S20" s="10" t="s">
         <v>342</v>
       </c>
-      <c r="F20" s="6" t="s">
+      <c r="T20" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="U20" s="9" t="s">
         <v>343</v>
-      </c>
-      <c r="J20" t="s">
-        <v>344</v>
-      </c>
-      <c r="K20" s="2" t="s">
-        <v>345</v>
-      </c>
-      <c r="L20" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="M20" t="s">
-        <v>346</v>
-      </c>
-      <c r="N20" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="O20" s="4" t="s">
-        <v>348</v>
-      </c>
-      <c r="P20" s="3" t="s">
-        <v>349</v>
-      </c>
-      <c r="Q20" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="R20" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="S20" s="3" t="s">
-        <v>352</v>
-      </c>
-      <c r="T20" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="U20" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="21" spans="1:24" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A21" s="2" t="s">
-        <v>354</v>
+      <c r="A21" s="6" t="s">
+        <v>344</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>357</v>
+        <v>345</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>346</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>347</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>358</v>
-      </c>
-      <c r="F21" s="6" t="s">
-        <v>343</v>
-      </c>
-      <c r="J21" t="s">
-        <v>359</v>
+        <v>348</v>
+      </c>
+      <c r="F21" s="13" t="s">
+        <v>333</v>
+      </c>
+      <c r="J21" s="9" t="s">
+        <v>349</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="M21" t="s">
-        <v>362</v>
+        <v>351</v>
+      </c>
+      <c r="M21" s="9" t="s">
+        <v>352</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="O21" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>364</v>
+      <c r="P21" s="10" t="s">
+        <v>354</v>
       </c>
       <c r="Q21" s="2" t="s">
-        <v>365</v>
+        <v>355</v>
       </c>
       <c r="R21" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="S21" t="s">
-        <v>366</v>
-      </c>
-      <c r="T21" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="S21" s="9" t="s">
+        <v>356</v>
+      </c>
+      <c r="T21" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="U21" t="s">
-        <v>367</v>
+      <c r="U21" s="9" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="22" spans="1:24" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="6" t="s">
+        <v>358</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>360</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>361</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="F22" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="J22" s="10" t="s">
+        <v>363</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="M22" s="10" t="s">
+        <v>366</v>
+      </c>
+      <c r="N22" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="O22" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="P22" s="10" t="s">
         <v>369</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="Q22" s="2" t="s">
         <v>370</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>371</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>373</v>
-      </c>
-      <c r="K22" s="2" t="s">
-        <v>374</v>
-      </c>
-      <c r="L22" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="M22" s="3" t="s">
-        <v>376</v>
-      </c>
-      <c r="N22" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="O22" s="4" t="s">
-        <v>378</v>
-      </c>
-      <c r="P22" s="3" t="s">
-        <v>379</v>
-      </c>
-      <c r="Q22" s="2" t="s">
-        <v>380</v>
       </c>
       <c r="R22" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="S22" t="s">
-        <v>381</v>
-      </c>
-      <c r="T22" s="3" t="s">
-        <v>382</v>
-      </c>
-      <c r="U22" t="s">
-        <v>383</v>
+      <c r="S22" s="9" t="s">
+        <v>371</v>
+      </c>
+      <c r="T22" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="U22" s="9" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="23" spans="1:24" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A23" s="2" t="s">
+      <c r="A23" s="6" t="s">
+        <v>374</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>376</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="F23" s="13" t="s">
+        <v>378</v>
+      </c>
+      <c r="J23" s="9" t="s">
+        <v>379</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="O23" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="P23" s="10" t="s">
+        <v>382</v>
+      </c>
+      <c r="Q23" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="R23" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="S23" s="9" t="s">
         <v>384</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="T23" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="U23" s="10" t="s">
         <v>386</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>387</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>388</v>
-      </c>
-      <c r="F23" s="6" t="s">
-        <v>389</v>
-      </c>
-      <c r="J23" t="s">
-        <v>390</v>
-      </c>
-      <c r="K23" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="L23" s="2" t="s">
-        <v>391</v>
-      </c>
-      <c r="O23" s="2" t="s">
-        <v>392</v>
-      </c>
-      <c r="P23" s="3" t="s">
-        <v>393</v>
-      </c>
-      <c r="Q23" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="R23" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="S23" t="s">
-        <v>395</v>
-      </c>
-      <c r="T23" s="3" t="s">
-        <v>396</v>
-      </c>
-      <c r="U23" s="3" t="s">
-        <v>397</v>
       </c>
     </row>
     <row r="24" spans="1:24" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A24" s="7" t="s">
-        <v>431</v>
+        <v>420</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>363</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>428</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>398</v>
+        <v>353</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>417</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>387</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>399</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>400</v>
-      </c>
-      <c r="J24" t="s">
-        <v>401</v>
+        <v>388</v>
+      </c>
+      <c r="F24" s="12" t="s">
+        <v>389</v>
+      </c>
+      <c r="J24" s="9" t="s">
+        <v>390</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>402</v>
+        <v>391</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="P24" t="s">
-        <v>403</v>
+        <v>208</v>
+      </c>
+      <c r="P24" s="9" t="s">
+        <v>392</v>
       </c>
       <c r="Q24" s="2" t="s">
-        <v>404</v>
+        <v>393</v>
       </c>
       <c r="R24" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="S24" s="3" t="s">
-        <v>405</v>
-      </c>
-      <c r="T24" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="S24" s="10" t="s">
+        <v>394</v>
+      </c>
+      <c r="T24" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="U24" t="s">
-        <v>406</v>
+      <c r="U24" s="9" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="25" spans="1:24" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A25" s="2" t="s">
-        <v>407</v>
+      <c r="A25" s="6" t="s">
+        <v>396</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>408</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>409</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>410</v>
+        <v>397</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>398</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>399</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>411</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>412</v>
-      </c>
-      <c r="J25" s="3" t="s">
-        <v>413</v>
+        <v>400</v>
+      </c>
+      <c r="F25" s="12" t="s">
+        <v>401</v>
+      </c>
+      <c r="J25" s="10" t="s">
+        <v>402</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>394</v>
+        <v>383</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="R25" s="2" t="s">
-        <v>414</v>
-      </c>
-      <c r="U25" t="s">
-        <v>415</v>
+        <v>403</v>
+      </c>
+      <c r="U25" s="9" t="s">
+        <v>404</v>
       </c>
     </row>
     <row r="26" spans="1:24" s="1" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A26" s="8"/>
       <c r="C26" s="2" t="s">
-        <v>416</v>
-      </c>
+        <v>405</v>
+      </c>
+      <c r="D26" s="8"/>
       <c r="F26" s="2" t="s">
-        <v>417</v>
-      </c>
+        <v>406</v>
+      </c>
+      <c r="G26" s="8"/>
+      <c r="J26" s="8"/>
       <c r="L26" s="2" t="s">
-        <v>418</v>
-      </c>
-      <c r="U26" s="1" t="s">
-        <v>419</v>
-      </c>
+        <v>407</v>
+      </c>
+      <c r="M26" s="8"/>
+      <c r="P26" s="8"/>
+      <c r="S26" s="8"/>
+      <c r="U26" s="8" t="s">
+        <v>408</v>
+      </c>
+      <c r="W26" s="8"/>
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="U27" t="s">
-        <v>420</v>
+      <c r="U27" s="9" t="s">
+        <v>409</v>
       </c>
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="U28" t="s">
-        <v>421</v>
+      <c r="U28" s="9" t="s">
+        <v>410</v>
       </c>
     </row>
     <row r="29" spans="1:24" x14ac:dyDescent="0.15">
       <c r="C29" s="3"/>
-      <c r="U29" t="s">
-        <v>422</v>
+      <c r="U29" s="9" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="30" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="U30" t="s">
-        <v>423</v>
+      <c r="U30" s="9" t="s">
+        <v>412</v>
       </c>
     </row>
     <row r="49" ht="70.900000000000006" customHeight="1" x14ac:dyDescent="0.15"/>

--- a/文档/伟人.xlsx
+++ b/文档/伟人.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Admin\Documents\GitHub\Sistine_civ6mod\文档\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC2645C9-3B44-40B6-B07D-5849B664EAA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C95B6A1D-DC8B-4058-925B-4A7C87178ECF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3570" yWindow="3810" windowWidth="19935" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -274,9 +274,6 @@
     <t>立即建造远古和中古城墙，并支付维护费（3次数）</t>
   </si>
   <si>
-    <t>立即建造远古和中古城墙，并支付维护费（3次数）。每次使得帝国所有城市的战斗力+2</t>
-  </si>
-  <si>
     <t>航海家汉诺</t>
   </si>
   <si>
@@ -760,9 +757,6 @@
     <t>本工业区辐射加大3格，有辐射效果的工业区建筑额外+2产能</t>
   </si>
   <si>
-    <t>本工业区辐射加大3格，有辐射效果的工业区建筑额外+2产能。</t>
-  </si>
-  <si>
     <t>郑一嫂</t>
   </si>
   <si>
@@ -994,9 +988,6 @@
     <t>本城地块+2魅力</t>
   </si>
   <si>
-    <t>本城地块+2魅力，本城奇观+100%业绩</t>
-  </si>
-  <si>
     <t>若阿金·马奎斯·里斯本</t>
   </si>
   <si>
@@ -1036,9 +1027,6 @@
     <t>本娱乐中心辐射加大3格，有辐射效果的娱乐中心建筑额外+1宜居</t>
   </si>
   <si>
-    <t>本娱乐中心辐射加大3格，有辐射效果的娱乐中心建筑额外+1宜居。非食物宜居加成提升100%</t>
-  </si>
-  <si>
     <t>东乡平八郎</t>
   </si>
   <si>
@@ -1163,9 +1151,6 @@
   </si>
   <si>
     <t>每公民产生的忠诚度压力+1</t>
-  </si>
-  <si>
-    <t>不提供产能的大工程师（标注）在隐退时为城市提供60*时代数产能</t>
   </si>
   <si>
     <t>谢尔盖·戈尔什科夫</t>
@@ -1334,6 +1319,26 @@
   </si>
   <si>
     <t>雅诗·兰黛</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>立即建造远古和中古城墙，并支付维护费。城市+2文化。（3次数）。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>本娱乐中心辐射加大3格，有辐射效果的娱乐中心建筑额外+1宜居。非食物宜居加成提升50%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>本城地块+2魅力，本城奇观+100%业绩</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不变</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不提供产能的大工程师（标注）在隐退时为城市提供120*城区数产能（最高600）</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1413,7 +1418,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1454,6 +1459,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1733,8 +1741,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F25"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="Q17" sqref="Q17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1878,7 +1886,7 @@
       <c r="N2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="O2" s="12" t="s">
         <v>15</v>
       </c>
       <c r="P2" s="10" t="s">
@@ -1949,7 +1957,7 @@
       <c r="N3" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="O3" s="4" t="s">
+      <c r="O3" s="14" t="s">
         <v>46</v>
       </c>
       <c r="P3" s="9" t="s">
@@ -2023,7 +2031,7 @@
       <c r="N4" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="O4" s="2" t="s">
+      <c r="O4" s="12" t="s">
         <v>15</v>
       </c>
       <c r="P4" s="9" t="s">
@@ -2048,7 +2056,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="5" spans="1:25" ht="54" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:25" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A5" s="6" t="s">
         <v>72</v>
       </c>
@@ -2091,1283 +2099,1283 @@
       <c r="N5" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="O5" s="4" t="s">
+      <c r="O5" s="14" t="s">
+        <v>427</v>
+      </c>
+      <c r="P5" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="P5" s="9" t="s">
+      <c r="Q5" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="Q5" s="3" t="s">
+      <c r="R5" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="R5" s="2" t="s">
+      <c r="S5" s="9" t="s">
         <v>87</v>
-      </c>
-      <c r="S5" s="9" t="s">
-        <v>88</v>
       </c>
       <c r="T5" s="2" t="s">
         <v>31</v>
       </c>
       <c r="U5" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="W5" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="W5" s="9" t="s">
+      <c r="X5" s="3" t="s">
         <v>90</v>
-      </c>
-      <c r="X5" s="3" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:25" ht="27" x14ac:dyDescent="0.15">
       <c r="A6" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="C6" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="D6" s="6" t="s">
         <v>94</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>95</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>61</v>
       </c>
       <c r="F6" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="G6" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="G6" s="9" t="s">
+      <c r="H6" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="I6" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="J6" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="J6" s="9" t="s">
+      <c r="K6" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="K6" s="2" t="s">
+      <c r="L6" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="L6" s="2" t="s">
+      <c r="M6" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="M6" s="9" t="s">
+      <c r="N6" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="N6" s="2" t="s">
+      <c r="O6" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="P6" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="O6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="P6" s="10" t="s">
+      <c r="Q6" s="2" t="s">
         <v>105</v>
-      </c>
-      <c r="Q6" s="2" t="s">
-        <v>106</v>
       </c>
       <c r="R6" s="2" t="s">
         <v>27</v>
       </c>
       <c r="S6" s="9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="T6" s="2" t="s">
         <v>31</v>
       </c>
       <c r="U6" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="V6" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="V6" s="3" t="s">
+      <c r="W6" s="9" t="s">
         <v>109</v>
-      </c>
-      <c r="W6" s="9" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="7" spans="1:25" ht="27" x14ac:dyDescent="0.15">
       <c r="A7" s="7" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C7" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="D7" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>112</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>427</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>113</v>
       </c>
       <c r="F7" s="12" t="s">
         <v>15</v>
       </c>
       <c r="G7" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="H7" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="I7" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="J7" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="J7" s="10" t="s">
+      <c r="K7" s="2" t="s">
         <v>117</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>118</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>15</v>
       </c>
       <c r="M7" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="N7" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="N7" s="2" t="s">
+      <c r="O7" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="O7" s="4" t="s">
+      <c r="P7" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="P7" s="9" t="s">
+      <c r="Q7" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="Q7" s="2" t="s">
+      <c r="R7" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="R7" s="2" t="s">
+      <c r="S7" s="9" t="s">
         <v>124</v>
-      </c>
-      <c r="S7" s="9" t="s">
-        <v>125</v>
       </c>
       <c r="T7" s="2" t="s">
         <v>31</v>
       </c>
       <c r="U7" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="W7" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="W7" s="10" t="s">
+      <c r="X7" s="4" t="s">
         <v>127</v>
-      </c>
-      <c r="X7" s="4" t="s">
-        <v>128</v>
       </c>
       <c r="Y7" s="2"/>
     </row>
     <row r="8" spans="1:25" ht="27" x14ac:dyDescent="0.15">
       <c r="A8" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="C8" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="D8" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="D8" s="7" t="s">
-        <v>428</v>
-      </c>
-      <c r="E8" s="3" t="s">
+      <c r="F8" s="12" t="s">
+        <v>416</v>
+      </c>
+      <c r="G8" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="F8" s="12" t="s">
-        <v>421</v>
-      </c>
-      <c r="G8" s="9" t="s">
+      <c r="H8" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="I8" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="I8" s="2" t="s">
+      <c r="J8" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="J8" s="9" t="s">
-        <v>136</v>
-      </c>
       <c r="K8" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>27</v>
       </c>
       <c r="M8" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="N8" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="N8" s="2" t="s">
+      <c r="O8" s="14" t="s">
         <v>138</v>
       </c>
-      <c r="O8" s="4" t="s">
+      <c r="P8" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="P8" s="10" t="s">
+      <c r="Q8" s="2" t="s">
         <v>140</v>
-      </c>
-      <c r="Q8" s="2" t="s">
-        <v>141</v>
       </c>
       <c r="R8" s="2" t="s">
         <v>15</v>
       </c>
       <c r="S8" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="T8" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="T8" s="2" t="s">
+      <c r="U8" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="U8" s="10" t="s">
+      <c r="W8" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="W8" s="9" t="s">
+      <c r="X8" s="3" t="s">
         <v>145</v>
-      </c>
-      <c r="X8" s="3" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="9" spans="1:25" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A9" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="C9" s="12" t="s">
+        <v>408</v>
+      </c>
+      <c r="D9" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="C9" s="12" t="s">
-        <v>413</v>
-      </c>
-      <c r="D9" s="8" t="s">
+      <c r="E9" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="F9" s="12" t="s">
+        <v>420</v>
+      </c>
+      <c r="G9" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="F9" s="12" t="s">
-        <v>425</v>
-      </c>
-      <c r="G9" s="9" t="s">
+      <c r="H9" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="I9" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="I9" s="2" t="s">
+      <c r="J9" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="J9" s="10" t="s">
+      <c r="K9" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="K9" s="2" t="s">
+      <c r="L9" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="L9" s="2" t="s">
+      <c r="M9" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="M9" s="9" t="s">
+      <c r="N9" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="N9" s="2" t="s">
+      <c r="O9" s="14" t="s">
         <v>158</v>
       </c>
-      <c r="O9" s="4" t="s">
+      <c r="P9" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="P9" s="10" t="s">
+      <c r="Q9" s="2" t="s">
         <v>160</v>
-      </c>
-      <c r="Q9" s="2" t="s">
-        <v>161</v>
       </c>
       <c r="R9" s="2" t="s">
         <v>15</v>
       </c>
       <c r="S9" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="T9" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="T9" s="2" t="s">
+      <c r="U9" s="10" t="s">
         <v>163</v>
       </c>
-      <c r="U9" s="10" t="s">
+      <c r="W9" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="W9" s="9" t="s">
+      <c r="X9" s="2" t="s">
         <v>165</v>
-      </c>
-      <c r="X9" s="2" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="10" spans="1:25" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A10" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="C10" s="12" t="s">
         <v>168</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="D10" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="E10" s="3" t="s">
         <v>170</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>171</v>
       </c>
       <c r="F10" s="12" t="s">
         <v>15</v>
       </c>
       <c r="G10" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="H10" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="I10" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="I10" s="2" t="s">
+      <c r="J10" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="J10" s="10" t="s">
+      <c r="K10" s="2" t="s">
         <v>175</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>176</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>27</v>
       </c>
       <c r="M10" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="N10" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="N10" s="2" t="s">
+      <c r="O10" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="P10" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="O10" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="P10" s="10" t="s">
+      <c r="Q10" s="2" t="s">
         <v>179</v>
-      </c>
-      <c r="Q10" s="2" t="s">
-        <v>180</v>
       </c>
       <c r="R10" s="2" t="s">
         <v>15</v>
       </c>
       <c r="S10" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="T10" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="T10" s="2" t="s">
+      <c r="U10" s="9" t="s">
         <v>182</v>
       </c>
-      <c r="U10" s="9" t="s">
+      <c r="W10" s="10" t="s">
         <v>183</v>
-      </c>
-      <c r="W10" s="10" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="11" spans="1:25" ht="27" x14ac:dyDescent="0.15">
       <c r="A11" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="C11" s="12" t="s">
         <v>186</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="D11" s="8" t="s">
         <v>187</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="E11" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="F11" s="12" t="s">
+        <v>419</v>
+      </c>
+      <c r="G11" s="9" t="s">
         <v>189</v>
       </c>
-      <c r="F11" s="12" t="s">
-        <v>424</v>
-      </c>
-      <c r="G11" s="9" t="s">
+      <c r="H11" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="H11" s="2" t="s">
+      <c r="I11" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="I11" s="2" t="s">
+      <c r="J11" s="10" t="s">
         <v>192</v>
       </c>
-      <c r="J11" s="10" t="s">
+      <c r="K11" s="2" t="s">
         <v>193</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>194</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>15</v>
       </c>
       <c r="M11" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="N11" s="2" t="s">
         <v>195</v>
-      </c>
-      <c r="N11" s="2" t="s">
-        <v>196</v>
       </c>
       <c r="O11" s="4" t="s">
         <v>15</v>
       </c>
       <c r="P11" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q11" s="2" t="s">
         <v>197</v>
-      </c>
-      <c r="Q11" s="2" t="s">
-        <v>198</v>
       </c>
       <c r="R11" s="2" t="s">
         <v>15</v>
       </c>
       <c r="S11" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="T11" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="T11" s="2" t="s">
+      <c r="U11" s="9" t="s">
         <v>200</v>
       </c>
-      <c r="U11" s="9" t="s">
+      <c r="W11" s="9" t="s">
         <v>201</v>
-      </c>
-      <c r="W11" s="9" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="12" spans="1:25" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A12" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>203</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>204</v>
       </c>
       <c r="C12" s="12" t="s">
         <v>15</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="I12" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="J12" s="9" t="s">
         <v>205</v>
       </c>
-      <c r="J12" s="9" t="s">
+      <c r="K12" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="K12" s="2" t="s">
+      <c r="L12" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="L12" s="2" t="s">
+      <c r="M12" s="9" t="s">
         <v>208</v>
       </c>
-      <c r="M12" s="9" t="s">
+      <c r="N12" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="N12" s="2" t="s">
+      <c r="O12" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="P12" s="9" t="s">
         <v>210</v>
       </c>
-      <c r="O12" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="P12" s="9" t="s">
+      <c r="Q12" s="2" t="s">
         <v>211</v>
-      </c>
-      <c r="Q12" s="2" t="s">
-        <v>212</v>
       </c>
       <c r="R12" s="2" t="s">
         <v>27</v>
       </c>
       <c r="S12" s="9" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="T12" s="2" t="s">
         <v>31</v>
       </c>
       <c r="U12" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="W12" s="9" t="s">
         <v>214</v>
       </c>
-      <c r="W12" s="9" t="s">
-        <v>215</v>
-      </c>
       <c r="X12" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="13" spans="1:25" ht="27" x14ac:dyDescent="0.15">
       <c r="A13" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="C13" s="12" t="s">
         <v>217</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="D13" s="6" t="s">
         <v>218</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="E13" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="F13" s="12" t="s">
         <v>220</v>
       </c>
-      <c r="F13" s="12" t="s">
+      <c r="J13" s="9" t="s">
         <v>221</v>
       </c>
-      <c r="J13" s="9" t="s">
+      <c r="K13" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="K13" s="2" t="s">
+      <c r="L13" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="L13" s="2" t="s">
+      <c r="M13" s="9" t="s">
         <v>224</v>
       </c>
-      <c r="M13" s="9" t="s">
+      <c r="N13" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="N13" s="3" t="s">
+      <c r="O13" s="14" t="s">
         <v>226</v>
       </c>
-      <c r="O13" s="4" t="s">
+      <c r="P13" s="9" t="s">
         <v>227</v>
       </c>
-      <c r="P13" s="9" t="s">
+      <c r="Q13" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="Q13" s="2" t="s">
+      <c r="R13" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="R13" s="2" t="s">
+      <c r="S13" s="10" t="s">
         <v>230</v>
       </c>
-      <c r="S13" s="10" t="s">
+      <c r="T13" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="T13" s="2" t="s">
+      <c r="U13" s="9" t="s">
         <v>232</v>
       </c>
-      <c r="U13" s="9" t="s">
+      <c r="W13" s="9" t="s">
         <v>233</v>
       </c>
-      <c r="W13" s="9" t="s">
+      <c r="X13" s="3" t="s">
         <v>234</v>
-      </c>
-      <c r="X13" s="3" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="14" spans="1:25" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A14" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="C14" s="12" t="s">
         <v>237</v>
       </c>
-      <c r="C14" s="12" t="s">
+      <c r="D14" s="8" t="s">
         <v>238</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="E14" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="F14" s="12" t="s">
         <v>240</v>
       </c>
-      <c r="F14" s="12" t="s">
+      <c r="J14" s="10" t="s">
         <v>241</v>
       </c>
-      <c r="J14" s="10" t="s">
+      <c r="K14" s="2" t="s">
         <v>242</v>
-      </c>
-      <c r="K14" s="2" t="s">
-        <v>243</v>
       </c>
       <c r="L14" s="2" t="s">
         <v>15</v>
       </c>
       <c r="M14" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="N14" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="N14" s="2" t="s">
+      <c r="O14" s="14" t="s">
+        <v>430</v>
+      </c>
+      <c r="P14" s="9" t="s">
         <v>245</v>
       </c>
-      <c r="O14" s="4" t="s">
+      <c r="Q14" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="P14" s="9" t="s">
+      <c r="R14" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="Q14" s="2" t="s">
+      <c r="S14" s="9" t="s">
         <v>248</v>
-      </c>
-      <c r="R14" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="S14" s="9" t="s">
-        <v>250</v>
       </c>
       <c r="T14" s="2" t="s">
         <v>31</v>
       </c>
       <c r="U14" s="10" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="W14" s="9" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="15" spans="1:25" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A15" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="C15" s="12" t="s">
         <v>253</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="D15" s="6" t="s">
         <v>254</v>
       </c>
-      <c r="C15" s="12" t="s">
+      <c r="E15" s="3" t="s">
         <v>255</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>256</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>257</v>
       </c>
       <c r="F15" s="12" t="s">
         <v>15</v>
       </c>
       <c r="J15" s="9" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="L15" s="2" t="s">
         <v>27</v>
       </c>
       <c r="M15" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="O15" s="14" t="s">
         <v>260</v>
       </c>
-      <c r="N15" s="2" t="s">
+      <c r="P15" s="10" t="s">
         <v>261</v>
       </c>
-      <c r="O15" s="4" t="s">
+      <c r="Q15" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="P15" s="10" t="s">
+      <c r="R15" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="Q15" s="2" t="s">
+      <c r="S15" s="9" t="s">
         <v>264</v>
       </c>
-      <c r="R15" s="2" t="s">
+      <c r="T15" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="S15" s="9" t="s">
+      <c r="U15" s="10" t="s">
         <v>266</v>
       </c>
-      <c r="T15" s="1" t="s">
+      <c r="W15" s="9" t="s">
         <v>267</v>
       </c>
-      <c r="U15" s="10" t="s">
+      <c r="X15" s="2" t="s">
         <v>268</v>
-      </c>
-      <c r="W15" s="9" t="s">
-        <v>269</v>
-      </c>
-      <c r="X15" s="2" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="16" spans="1:25" ht="27" x14ac:dyDescent="0.15">
       <c r="A16" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="C16" s="12" t="s">
         <v>271</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="D16" s="6" t="s">
         <v>272</v>
       </c>
-      <c r="C16" s="12" t="s">
+      <c r="E16" s="3" t="s">
         <v>273</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>274</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>275</v>
       </c>
       <c r="F16" s="12" t="s">
         <v>15</v>
       </c>
       <c r="J16" s="9" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="L16" s="2" t="s">
         <v>15</v>
       </c>
       <c r="M16" s="9" t="s">
+        <v>276</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="O16" s="14" t="s">
+        <v>430</v>
+      </c>
+      <c r="P16" s="10" t="s">
         <v>278</v>
       </c>
-      <c r="N16" s="2" t="s">
+      <c r="Q16" s="2" t="s">
         <v>279</v>
-      </c>
-      <c r="O16" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="P16" s="10" t="s">
-        <v>280</v>
-      </c>
-      <c r="Q16" s="2" t="s">
-        <v>281</v>
       </c>
       <c r="R16" s="2" t="s">
         <v>27</v>
       </c>
       <c r="S16" s="9" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="T16" s="2" t="s">
         <v>31</v>
       </c>
       <c r="U16" s="9" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="W16" s="9" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="17" spans="1:24" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A17" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="C17" s="12" t="s">
         <v>285</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="D17" s="6" t="s">
         <v>286</v>
       </c>
-      <c r="C17" s="12" t="s">
+      <c r="E17" s="3" t="s">
         <v>287</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>288</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>289</v>
       </c>
       <c r="F17" s="12" t="s">
         <v>15</v>
       </c>
       <c r="J17" s="9" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="L17" s="2" t="s">
         <v>27</v>
       </c>
       <c r="M17" s="10" t="s">
+        <v>290</v>
+      </c>
+      <c r="N17" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="O17" s="14" t="s">
         <v>292</v>
       </c>
-      <c r="N17" s="2" t="s">
+      <c r="P17" s="9" t="s">
         <v>293</v>
       </c>
-      <c r="O17" s="4" t="s">
+      <c r="Q17" s="2" t="s">
         <v>294</v>
-      </c>
-      <c r="P17" s="9" t="s">
-        <v>295</v>
-      </c>
-      <c r="Q17" s="2" t="s">
-        <v>296</v>
       </c>
       <c r="R17" s="2" t="s">
         <v>15</v>
       </c>
       <c r="S17" s="9" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="T17" s="2" t="s">
         <v>31</v>
       </c>
       <c r="U17" s="9" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="W17" s="6" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="18" spans="1:24" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A18" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>409</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>410</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="E18" s="3" t="s">
         <v>300</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>414</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>415</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>301</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>302</v>
       </c>
       <c r="F18" s="12" t="s">
         <v>15</v>
       </c>
       <c r="J18" s="10" t="s">
+        <v>301</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="L18" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="K18" s="2" t="s">
+      <c r="M18" s="10" t="s">
         <v>304</v>
       </c>
-      <c r="L18" s="2" t="s">
+      <c r="N18" s="3" t="s">
         <v>305</v>
       </c>
-      <c r="M18" s="10" t="s">
+      <c r="O18" s="12" t="s">
         <v>306</v>
       </c>
-      <c r="N18" s="3" t="s">
+      <c r="P18" s="9" t="s">
         <v>307</v>
       </c>
-      <c r="O18" s="2" t="s">
+      <c r="Q18" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="P18" s="9" t="s">
+      <c r="R18" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="S18" s="9" t="s">
         <v>309</v>
-      </c>
-      <c r="Q18" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="R18" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="S18" s="9" t="s">
-        <v>311</v>
       </c>
       <c r="T18" s="2" t="s">
         <v>31</v>
       </c>
       <c r="U18" s="9" t="s">
+        <v>310</v>
+      </c>
+      <c r="V18" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="W18" s="10" t="s">
         <v>312</v>
       </c>
-      <c r="V18" s="2" t="s">
+      <c r="X18" s="3" t="s">
         <v>313</v>
-      </c>
-      <c r="W18" s="10" t="s">
-        <v>314</v>
-      </c>
-      <c r="X18" s="3" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="19" spans="1:24" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A19" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>411</v>
+      </c>
+      <c r="D19" s="6" t="s">
         <v>316</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="E19" s="3" t="s">
         <v>317</v>
       </c>
-      <c r="C19" s="12" t="s">
-        <v>416</v>
-      </c>
-      <c r="D19" s="6" t="s">
+      <c r="F19" s="12" t="s">
+        <v>421</v>
+      </c>
+      <c r="J19" s="9" t="s">
         <v>318</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="K19" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="F19" s="12" t="s">
-        <v>426</v>
-      </c>
-      <c r="J19" s="9" t="s">
+      <c r="L19" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="M19" s="9" t="s">
         <v>320</v>
       </c>
-      <c r="K19" s="2" t="s">
+      <c r="N19" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="L19" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="M19" s="9" t="s">
+      <c r="O19" s="14" t="s">
+        <v>429</v>
+      </c>
+      <c r="P19" s="10" t="s">
         <v>322</v>
-      </c>
-      <c r="N19" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="O19" s="4" t="s">
-        <v>324</v>
-      </c>
-      <c r="P19" s="10" t="s">
-        <v>325</v>
       </c>
       <c r="Q19" s="2" t="s">
         <v>80</v>
       </c>
       <c r="R19" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="S19" s="9" t="s">
+        <v>324</v>
+      </c>
+      <c r="T19" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="U19" s="9" t="s">
         <v>326</v>
       </c>
-      <c r="S19" s="9" t="s">
+    </row>
+    <row r="20" spans="1:24" ht="54" x14ac:dyDescent="0.15">
+      <c r="A20" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="T19" s="2" t="s">
+      <c r="C20" s="12" t="s">
         <v>328</v>
       </c>
-      <c r="U19" s="9" t="s">
+      <c r="D20" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="E20" s="3" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="20" spans="1:24" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A20" s="7" t="s">
-        <v>419</v>
-      </c>
-      <c r="B20" s="2" t="s">
+      <c r="F20" s="13" t="s">
         <v>330</v>
       </c>
-      <c r="C20" s="12" t="s">
+      <c r="J20" s="9" t="s">
         <v>331</v>
       </c>
-      <c r="D20" s="7" t="s">
-        <v>430</v>
-      </c>
-      <c r="E20" s="3" t="s">
+      <c r="K20" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="F20" s="13" t="s">
+      <c r="L20" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="M20" s="9" t="s">
         <v>333</v>
       </c>
-      <c r="J20" s="9" t="s">
+      <c r="N20" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="K20" s="2" t="s">
+      <c r="O20" s="14" t="s">
+        <v>428</v>
+      </c>
+      <c r="P20" s="10" t="s">
         <v>335</v>
       </c>
-      <c r="L20" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="M20" s="9" t="s">
+      <c r="Q20" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="N20" s="2" t="s">
+      <c r="R20" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="O20" s="4" t="s">
+      <c r="S20" s="10" t="s">
         <v>338</v>
-      </c>
-      <c r="P20" s="10" t="s">
-        <v>339</v>
-      </c>
-      <c r="Q20" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="R20" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="S20" s="10" t="s">
-        <v>342</v>
       </c>
       <c r="T20" s="2" t="s">
         <v>31</v>
       </c>
       <c r="U20" s="9" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
     </row>
     <row r="21" spans="1:24" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A21" s="6" t="s">
+        <v>340</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>342</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>343</v>
+      </c>
+      <c r="E21" s="3" t="s">
         <v>344</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="F21" s="13" t="s">
+        <v>330</v>
+      </c>
+      <c r="J21" s="9" t="s">
         <v>345</v>
       </c>
-      <c r="C21" s="12" t="s">
+      <c r="K21" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="D21" s="6" t="s">
+      <c r="L21" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="E21" s="3" t="s">
+      <c r="M21" s="9" t="s">
         <v>348</v>
       </c>
-      <c r="F21" s="13" t="s">
-        <v>333</v>
-      </c>
-      <c r="J21" s="9" t="s">
+      <c r="N21" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="K21" s="2" t="s">
+      <c r="O21" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="P21" s="10" t="s">
         <v>350</v>
       </c>
-      <c r="L21" s="2" t="s">
+      <c r="Q21" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="M21" s="9" t="s">
+      <c r="R21" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="S21" s="9" t="s">
         <v>352</v>
-      </c>
-      <c r="N21" s="2" t="s">
-        <v>353</v>
-      </c>
-      <c r="O21" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="P21" s="10" t="s">
-        <v>354</v>
-      </c>
-      <c r="Q21" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="R21" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="S21" s="9" t="s">
-        <v>356</v>
       </c>
       <c r="T21" s="2" t="s">
         <v>31</v>
       </c>
       <c r="U21" s="9" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
     </row>
     <row r="22" spans="1:24" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A22" s="6" t="s">
+        <v>354</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>356</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>357</v>
+      </c>
+      <c r="E22" s="2" t="s">
         <v>358</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="C22" s="12" t="s">
-        <v>360</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>361</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>362</v>
       </c>
       <c r="F22" s="12" t="s">
         <v>15</v>
       </c>
       <c r="J22" s="10" t="s">
+        <v>359</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="M22" s="10" t="s">
+        <v>362</v>
+      </c>
+      <c r="N22" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="K22" s="2" t="s">
+      <c r="O22" s="14" t="s">
         <v>364</v>
       </c>
-      <c r="L22" s="2" t="s">
+      <c r="P22" s="10" t="s">
         <v>365</v>
       </c>
-      <c r="M22" s="10" t="s">
+      <c r="Q22" s="2" t="s">
         <v>366</v>
-      </c>
-      <c r="N22" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="O22" s="4" t="s">
-        <v>368</v>
-      </c>
-      <c r="P22" s="10" t="s">
-        <v>369</v>
-      </c>
-      <c r="Q22" s="2" t="s">
-        <v>370</v>
       </c>
       <c r="R22" s="2" t="s">
         <v>15</v>
       </c>
       <c r="S22" s="9" t="s">
+        <v>367</v>
+      </c>
+      <c r="T22" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="U22" s="9" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" ht="54" x14ac:dyDescent="0.15">
+      <c r="A23" s="6" t="s">
+        <v>370</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="T22" s="2" t="s">
+      <c r="C23" s="12" t="s">
         <v>372</v>
       </c>
-      <c r="U22" s="9" t="s">
+      <c r="D23" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="E23" s="3" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="23" spans="1:24" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A23" s="6" t="s">
+      <c r="F23" s="13" t="s">
         <v>374</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="J23" s="9" t="s">
         <v>375</v>
       </c>
-      <c r="C23" s="12" t="s">
+      <c r="K23" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="L23" s="2" t="s">
         <v>376</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="O23" s="5" t="s">
         <v>431</v>
       </c>
-      <c r="E23" s="3" t="s">
+      <c r="P23" s="10" t="s">
         <v>377</v>
       </c>
-      <c r="F23" s="13" t="s">
+      <c r="Q23" s="2" t="s">
         <v>378</v>
       </c>
-      <c r="J23" s="9" t="s">
+      <c r="R23" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="S23" s="9" t="s">
         <v>379</v>
       </c>
-      <c r="K23" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="L23" s="2" t="s">
+      <c r="T23" s="2" t="s">
         <v>380</v>
       </c>
-      <c r="O23" s="2" t="s">
+      <c r="U23" s="10" t="s">
         <v>381</v>
-      </c>
-      <c r="P23" s="10" t="s">
-        <v>382</v>
-      </c>
-      <c r="Q23" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="R23" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="S23" s="9" t="s">
-        <v>384</v>
-      </c>
-      <c r="T23" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="U23" s="10" t="s">
-        <v>386</v>
       </c>
     </row>
     <row r="24" spans="1:24" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A24" s="7" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="D24" s="8" t="s">
+        <v>382</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="F24" s="12" t="s">
+        <v>384</v>
+      </c>
+      <c r="J24" s="9" t="s">
+        <v>385</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="P24" s="9" t="s">
         <v>387</v>
       </c>
-      <c r="E24" s="3" t="s">
+      <c r="Q24" s="2" t="s">
         <v>388</v>
       </c>
-      <c r="F24" s="12" t="s">
+      <c r="R24" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="S24" s="10" t="s">
         <v>389</v>
-      </c>
-      <c r="J24" s="9" t="s">
-        <v>390</v>
-      </c>
-      <c r="K24" s="2" t="s">
-        <v>391</v>
-      </c>
-      <c r="L24" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="P24" s="9" t="s">
-        <v>392</v>
-      </c>
-      <c r="Q24" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="R24" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="S24" s="10" t="s">
-        <v>394</v>
       </c>
       <c r="T24" s="2" t="s">
         <v>31</v>
       </c>
       <c r="U24" s="9" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
     </row>
     <row r="25" spans="1:24" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A25" s="6" t="s">
+        <v>391</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>393</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>394</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="F25" s="12" t="s">
         <v>396</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="J25" s="10" t="s">
         <v>397</v>
       </c>
-      <c r="C25" s="12" t="s">
+      <c r="K25" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="R25" s="2" t="s">
         <v>398</v>
       </c>
-      <c r="D25" s="8" t="s">
+      <c r="U25" s="9" t="s">
         <v>399</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>400</v>
-      </c>
-      <c r="F25" s="12" t="s">
-        <v>401</v>
-      </c>
-      <c r="J25" s="10" t="s">
-        <v>402</v>
-      </c>
-      <c r="K25" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="L25" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="R25" s="2" t="s">
-        <v>403</v>
-      </c>
-      <c r="U25" s="9" t="s">
-        <v>404</v>
       </c>
     </row>
     <row r="26" spans="1:24" s="1" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A26" s="8"/>
       <c r="C26" s="2" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="D26" s="8"/>
       <c r="F26" s="2" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="G26" s="8"/>
       <c r="J26" s="8"/>
       <c r="L26" s="2" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="M26" s="8"/>
       <c r="P26" s="8"/>
       <c r="S26" s="8"/>
       <c r="U26" s="8" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="W26" s="8"/>
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.15">
       <c r="U27" s="9" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.15">
       <c r="U28" s="9" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
     </row>
     <row r="29" spans="1:24" x14ac:dyDescent="0.15">
       <c r="C29" s="3"/>
       <c r="U29" s="9" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
     </row>
     <row r="30" spans="1:24" x14ac:dyDescent="0.15">
       <c r="U30" s="9" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
     </row>
     <row r="49" ht="70.900000000000006" customHeight="1" x14ac:dyDescent="0.15"/>

--- a/文档/伟人.xlsx
+++ b/文档/伟人.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Admin\Documents\GitHub\Sistine_civ6mod\文档\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C95B6A1D-DC8B-4058-925B-4A7C87178ECF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF112375-8784-4C9E-A644-6D72138D988E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13800" yWindow="4065" windowWidth="19935" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1741,8 +1741,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="Q17" sqref="Q17"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2265,7 +2265,7 @@
       <c r="W7" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="X7" s="4" t="s">
+      <c r="X7" s="14" t="s">
         <v>127</v>
       </c>
       <c r="Y7" s="2"/>
@@ -2408,7 +2408,7 @@
       <c r="W9" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="X9" s="2" t="s">
+      <c r="X9" s="12" t="s">
         <v>165</v>
       </c>
     </row>
@@ -2609,7 +2609,7 @@
       <c r="W12" s="9" t="s">
         <v>214</v>
       </c>
-      <c r="X12" s="4" t="s">
+      <c r="X12" s="14" t="s">
         <v>127</v>
       </c>
     </row>

--- a/文档/伟人.xlsx
+++ b/文档/伟人.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Admin\Documents\GitHub\Sistine_civ6mod\文档\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54C6CF56-4501-4D32-8C44-024BC6EF3035}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DFA364D-A622-435F-B1AE-452076DEF7C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="10545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -892,510 +892,511 @@
     <t>生产军事单位+5%生产力</t>
   </si>
   <si>
+    <t>100%太空计划锤</t>
+  </si>
+  <si>
+    <t>切斯特·尼米兹</t>
+  </si>
+  <si>
+    <t>获得一个带一级升级的潜艇，建造海军掠袭单位+20%产能</t>
+  </si>
+  <si>
+    <t>索福尼斯巴·安圭索拉</t>
+  </si>
+  <si>
+    <t>詹姆斯·乔伊斯</t>
+  </si>
+  <si>
+    <t>玛格丽特·米德（人类学家）</t>
+  </si>
+  <si>
+    <t>1000瓶琴</t>
+  </si>
+  <si>
+    <t>3000瓶琴。无视边界</t>
+  </si>
+  <si>
+    <t>梅里塔·本茨（咖啡滤纸发明人，美乐家咖啡）</t>
+  </si>
+  <si>
+    <t>通往其他文明的商路+25%对此文明的旅游业绩，1商路容量</t>
+  </si>
+  <si>
+    <t>格奥尔吉·朱可夫</t>
+  </si>
+  <si>
+    <t>陆地单位+50%夹击加成</t>
+  </si>
+  <si>
+    <t>骑兵+7力</t>
+  </si>
+  <si>
+    <t>丹下健三</t>
+  </si>
+  <si>
+    <t>本城每个区域提供等于相邻加成的旅游业绩（金币相邻减半）</t>
+  </si>
+  <si>
+    <t>改为全国</t>
+  </si>
+  <si>
+    <t>葛丽丝·霍普</t>
+  </si>
+  <si>
+    <t>2个随机免费科技</t>
+  </si>
+  <si>
+    <t>提香</t>
+  </si>
+  <si>
+    <t>艾米莉·狄金森</t>
+  </si>
+  <si>
+    <t>卡尔·萨根（天文学家、科普作家）</t>
+  </si>
+  <si>
+    <t>3000点太空计划锤</t>
+  </si>
+  <si>
+    <t>地外任务的尤里卡或科技，以及1个免费科技。2000太空计划锤</t>
+  </si>
+  <si>
+    <t>2单位香水（+6宜居）</t>
+  </si>
+  <si>
+    <t>奢侈资源+8宜居</t>
+  </si>
+  <si>
+    <t>苏迪曼</t>
+  </si>
+  <si>
+    <t>每公民产生的忠诚度压力+1</t>
+  </si>
+  <si>
+    <t>谢尔盖·戈尔什科夫</t>
+  </si>
+  <si>
+    <t>1个单位获得一个升级，+100%经验</t>
+  </si>
+  <si>
+    <t>文森特·梵高</t>
+  </si>
+  <si>
+    <t>列夫·托尔斯泰</t>
+  </si>
+  <si>
+    <t>贾姆谢特吉·塔塔</t>
+  </si>
+  <si>
+    <t>学院+10业绩</t>
+  </si>
+  <si>
+    <t>立即在本城建设图书馆、大学和公立学校。公立学校+2科技。学院+10业绩。</t>
+  </si>
+  <si>
+    <t>艾哈迈德·沙阿·马苏德</t>
+  </si>
+  <si>
+    <t>获得一个1次升级的现代反坦克</t>
+  </si>
+  <si>
+    <t>克兰西·费尔南多</t>
+  </si>
+  <si>
+    <t>1个单位获得一个升级，+200%经验</t>
+  </si>
+  <si>
+    <t>瓦西里·康定斯基</t>
+  </si>
+  <si>
+    <t>马克·吐温</t>
+  </si>
+  <si>
+    <t>阿卜杜勒·萨拉姆（电弱统一模型，物理学家）</t>
+  </si>
+  <si>
+    <t>信息时代全尤里卡</t>
+  </si>
+  <si>
+    <t>信息时代全尤里卡，以及3个未来时代尤里卡</t>
+  </si>
+  <si>
+    <t>井深大</t>
+  </si>
+  <si>
+    <t>工业区+10业绩</t>
+  </si>
+  <si>
+    <t>工业区的相邻加成提供等量文化。音乐巨作+200%业绩。工业区+10业绩。</t>
+  </si>
+  <si>
+    <t>维贾亚·维玛拉拉特</t>
+  </si>
+  <si>
+    <t>古典海将可强化远古单位，信息海将可强化未来单位（如果有）。</t>
+  </si>
+  <si>
+    <t>碧雅翠丝·波特</t>
+  </si>
+  <si>
+    <t>所有大科学家都额外立即解锁一项随机科技。</t>
+  </si>
+  <si>
+    <t>所有商人额外获得：300×时代数量金钱</t>
+  </si>
+  <si>
+    <t>古典大军可强化远古单位，信息大军可强化未来单位（如果有）。</t>
+  </si>
+  <si>
+    <t>弗朗西斯·斯科特·菲茨杰拉德</t>
+  </si>
+  <si>
+    <t>拉宾德拉纳特·泰戈尔</t>
+  </si>
+  <si>
+    <t>赫伯特·乔治·威尔斯</t>
+  </si>
+  <si>
+    <t>卡雷尔·恰佩克</t>
+  </si>
+  <si>
+    <t>2住房1宜居，非食物宜居加成提升50%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1电气原子尤里卡，每个伟人的点数需求-100</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2尤里卡，每个伟人的点数需求-200</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>尤里卡提供额外+20%的科技。首次研发新时代的科技或市政时提供2个本时代尤里卡。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>复合材料、智能材料的尤里卡或科技，50%太空计划锤</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>希尔德加德·冯·宾根（博物学家、天主教圣人）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>贾娜姬·安玛尔（拉马努金之妻，植物学家）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>斯蒂芬妮·柯欧拉克（化学家，凯芙拉纤维发明人）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2使者，国库金币3%利息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2使者，商路终点每区域1金币</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1使者，国内商路每区域0.5金币</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3使者，矿山+1金币</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>成为目标城邦的宗主国（不移除其他玩家的使者）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有文明的外交能见度+1，商路终点每区域1金币</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>马可·波罗</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>皮耶罗·德·巴尔迪</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>托达·马尔拉贾（莫卧儿王朝藩王，建立标准的货币和度量衡制度）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>赫莲娜·鲁宾斯坦（现代美容行业奠基人之一）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>雅诗·兰黛</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>立即建造远古和中古城墙，并支付维护费。城市+2文化。（3次数）。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>本娱乐中心辐射加大3格，有辐射效果的娱乐中心建筑额外+1宜居。非食物宜居加成提升50%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>本城地块+2魅力，本城奇观+100%业绩</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不变</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不提供产能的大工程师（标注）在隐退时为城市提供120*城区数产能（最高600）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不变（孙子兵法巨作提供+50%夹击加成）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>全局厌战-50%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有陆地单位+3力</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2次数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>赠送一个单位有+2移动力的最强海军近战单位</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>900金，劫掠贸易路线+60%产出</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>郑一嫂</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2格内的单位对城市+7力</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2格内的单位对城市+4力</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>圣乔治的詹姆斯</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>沙·贾汗</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>安东尼奥·何塞·德·苏克雷</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>盖乌斯·杜伊利乌斯</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>地米斯托克利</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>航海家汉诺</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>希墨里俄斯</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>弗朗西斯·德雷克</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>圣克鲁斯</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>拉斯卡丽娜·布布丽娜</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>斐迪南·麦哲伦</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>弗兰茨·冯·希佩尔</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>若阿金·马奎斯·里斯本</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>马休·佩里</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿姆里塔·谢吉尔</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>安德烈·卢布廖夫</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>安杰莉卡·考夫曼</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>多纳泰罗</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>缪斯女神萨拉·哈罗普</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>海华沙与明尼哈哈之婚</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>埃尔·格列柯</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>托莱多之景、博士来拜</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>古斯塔夫·克里姆特</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>向日葵农场花园、开默城堡公园中的大道</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>张承业</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>三人问年图、公鸡、双马人物图</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>信州诹访湖</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>莲溪渔隐图</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>莎乐美和施洗约翰的头</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>星夜、夜间的露天咖啡座、夜间咖啡馆</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>仲儿</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>叶甫盖尼·奥涅金、鲍里斯·戈都诺夫</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>奥努瓦男爵夫人玛丽·卡特琳</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>杰弗雷·乔叟</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>玛格丽特·卡文迪许</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>埃德加·爱伦·坡</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>加夫列拉·米斯特拉尔</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>路德维希·凡·贝多芬</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>第1号大提琴组曲</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>安东尼奥·维瓦尔第</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>协奏曲《夜》</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>乘风破浪圆舞曲、卡门华尔兹</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>《前奏曲与赋格》（作品16）之3，A小调小托卡塔曲</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>高哈尔·扬</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡纳吉·乔吉亚拉加</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>八桥检校</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>约翰·塞巴斯蒂安·巴赫</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>沃尔夫冈·阿玛多伊斯·莫扎特</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>迪米特里·坎泰米尔</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>弗朗茨·李斯特</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>米科拉·莱昂托维奇（官方错译为尼古拉·李森科）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>沃纳·冯·布劳恩</t>
-  </si>
-  <si>
-    <t>100%太空计划锤</t>
-  </si>
-  <si>
-    <t>切斯特·尼米兹</t>
-  </si>
-  <si>
-    <t>获得一个带一级升级的潜艇，建造海军掠袭单位+20%产能</t>
-  </si>
-  <si>
-    <t>索福尼斯巴·安圭索拉</t>
-  </si>
-  <si>
-    <t>詹姆斯·乔伊斯</t>
-  </si>
-  <si>
-    <t>玛格丽特·米德（人类学家）</t>
-  </si>
-  <si>
-    <t>1000瓶琴</t>
-  </si>
-  <si>
-    <t>3000瓶琴。无视边界</t>
-  </si>
-  <si>
-    <t>梅里塔·本茨（咖啡滤纸发明人，美乐家咖啡）</t>
-  </si>
-  <si>
-    <t>通往其他文明的商路+25%对此文明的旅游业绩，1商路容量</t>
-  </si>
-  <si>
-    <t>格奥尔吉·朱可夫</t>
-  </si>
-  <si>
-    <t>陆地单位+50%夹击加成</t>
-  </si>
-  <si>
-    <t>骑兵+7力</t>
-  </si>
-  <si>
-    <t>丹下健三</t>
-  </si>
-  <si>
-    <t>本城每个区域提供等于相邻加成的旅游业绩（金币相邻减半）</t>
-  </si>
-  <si>
-    <t>改为全国</t>
-  </si>
-  <si>
-    <t>葛丽丝·霍普</t>
-  </si>
-  <si>
-    <t>2个随机免费科技</t>
-  </si>
-  <si>
-    <t>提香</t>
-  </si>
-  <si>
-    <t>艾米莉·狄金森</t>
-  </si>
-  <si>
-    <t>卡尔·萨根（天文学家、科普作家）</t>
-  </si>
-  <si>
-    <t>3000点太空计划锤</t>
-  </si>
-  <si>
-    <t>地外任务的尤里卡或科技，以及1个免费科技。2000太空计划锤</t>
-  </si>
-  <si>
-    <t>2单位香水（+6宜居）</t>
-  </si>
-  <si>
-    <t>奢侈资源+8宜居</t>
-  </si>
-  <si>
-    <t>苏迪曼</t>
-  </si>
-  <si>
-    <t>每公民产生的忠诚度压力+1</t>
-  </si>
-  <si>
-    <t>谢尔盖·戈尔什科夫</t>
-  </si>
-  <si>
-    <t>1个单位获得一个升级，+100%经验</t>
-  </si>
-  <si>
-    <t>文森特·梵高</t>
-  </si>
-  <si>
-    <t>列夫·托尔斯泰</t>
-  </si>
-  <si>
-    <t>贾姆谢特吉·塔塔</t>
-  </si>
-  <si>
-    <t>学院+10业绩</t>
-  </si>
-  <si>
-    <t>立即在本城建设图书馆、大学和公立学校。公立学校+2科技。学院+10业绩。</t>
-  </si>
-  <si>
-    <t>艾哈迈德·沙阿·马苏德</t>
-  </si>
-  <si>
-    <t>获得一个1次升级的现代反坦克</t>
-  </si>
-  <si>
-    <t>克兰西·费尔南多</t>
-  </si>
-  <si>
-    <t>1个单位获得一个升级，+200%经验</t>
-  </si>
-  <si>
-    <t>瓦西里·康定斯基</t>
-  </si>
-  <si>
-    <t>马克·吐温</t>
-  </si>
-  <si>
-    <t>阿卜杜勒·萨拉姆（电弱统一模型，物理学家）</t>
-  </si>
-  <si>
-    <t>信息时代全尤里卡</t>
-  </si>
-  <si>
-    <t>信息时代全尤里卡，以及3个未来时代尤里卡</t>
-  </si>
-  <si>
-    <t>井深大</t>
-  </si>
-  <si>
-    <t>工业区+10业绩</t>
-  </si>
-  <si>
-    <t>工业区的相邻加成提供等量文化。音乐巨作+200%业绩。工业区+10业绩。</t>
-  </si>
-  <si>
-    <t>维贾亚·维玛拉拉特</t>
-  </si>
-  <si>
-    <t>古典海将可强化远古单位，信息海将可强化未来单位（如果有）。</t>
-  </si>
-  <si>
-    <t>碧雅翠丝·波特</t>
-  </si>
-  <si>
-    <t>所有大科学家都额外立即解锁一项随机科技。</t>
-  </si>
-  <si>
-    <t>所有商人额外获得：300×时代数量金钱</t>
-  </si>
-  <si>
-    <t>古典大军可强化远古单位，信息大军可强化未来单位（如果有）。</t>
-  </si>
-  <si>
-    <t>弗朗西斯·斯科特·菲茨杰拉德</t>
-  </si>
-  <si>
-    <t>拉宾德拉纳特·泰戈尔</t>
-  </si>
-  <si>
-    <t>赫伯特·乔治·威尔斯</t>
-  </si>
-  <si>
-    <t>卡雷尔·恰佩克</t>
-  </si>
-  <si>
-    <t>2住房1宜居，非食物宜居加成提升50%</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1电气原子尤里卡，每个伟人的点数需求-100</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2尤里卡，每个伟人的点数需求-200</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>尤里卡提供额外+20%的科技。首次研发新时代的科技或市政时提供2个本时代尤里卡。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>复合材料、智能材料的尤里卡或科技，50%太空计划锤</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>希尔德加德·冯·宾根（博物学家、天主教圣人）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>贾娜姬·安玛尔（拉马努金之妻，植物学家）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>斯蒂芬妮·柯欧拉克（化学家，凯芙拉纤维发明人）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2使者，国库金币3%利息</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2使者，商路终点每区域1金币</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1使者，国内商路每区域0.5金币</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>3使者，矿山+1金币</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>成为目标城邦的宗主国（不移除其他玩家的使者）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>所有文明的外交能见度+1，商路终点每区域1金币</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>马可·波罗</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>皮耶罗·德·巴尔迪</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>托达·马尔拉贾（莫卧儿王朝藩王，建立标准的货币和度量衡制度）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>赫莲娜·鲁宾斯坦（现代美容行业奠基人之一）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>雅诗·兰黛</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>立即建造远古和中古城墙，并支付维护费。城市+2文化。（3次数）。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>本娱乐中心辐射加大3格，有辐射效果的娱乐中心建筑额外+1宜居。非食物宜居加成提升50%</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>本城地块+2魅力，本城奇观+100%业绩</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>不变</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>不提供产能的大工程师（标注）在隐退时为城市提供120*城区数产能（最高600）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>不变（孙子兵法巨作提供+50%夹击加成）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>全局厌战-50%</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>所有陆地单位+3力</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2次数</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>赠送一个单位有+2移动力的最强海军近战单位</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>900金，劫掠贸易路线+60%产出</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>郑一嫂</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2格内的单位对城市+7力</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2格内的单位对城市+4力</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>圣乔治的詹姆斯</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>沙·贾汗</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>安东尼奥·何塞·德·苏克雷</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>盖乌斯·杜伊利乌斯</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>地米斯托克利</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>航海家汉诺</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>希墨里俄斯</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>弗朗西斯·德雷克</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>圣克鲁斯</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>拉斯卡丽娜·布布丽娜</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>斐迪南·麦哲伦</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>弗兰茨·冯·希佩尔</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>若阿金·马奎斯·里斯本</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>马休·佩里</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>阿姆里塔·谢吉尔</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>安德烈·卢布廖夫</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>安杰莉卡·考夫曼</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>多纳泰罗</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>缪斯女神萨拉·哈罗普</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>海华沙与明尼哈哈之婚</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>埃尔·格列柯</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>托莱多之景、博士来拜</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>古斯塔夫·克里姆特</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>向日葵农场花园、开默城堡公园中的大道</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>张承业</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>三人问年图、公鸡、双马人物图</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>信州诹访湖</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>莲溪渔隐图</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>莎乐美和施洗约翰的头</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>星夜、夜间的露天咖啡座、夜间咖啡馆</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>仲儿</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>叶甫盖尼·奥涅金、鲍里斯·戈都诺夫</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>奥努瓦男爵夫人玛丽·卡特琳</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>杰弗雷·乔叟</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>玛格丽特·卡文迪许</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>埃德加·爱伦·坡</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>加夫列拉·米斯特拉尔</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>路德维希·凡·贝多芬</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>第1号大提琴组曲</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>安东尼奥·维瓦尔第</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>协奏曲《夜》</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>乘风破浪圆舞曲、卡门华尔兹</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>《前奏曲与赋格》（作品16）之3，A小调小托卡塔曲</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>高哈尔·扬</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>卡纳吉·乔吉亚拉加</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>八桥检校</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>约翰·塞巴斯蒂安·巴赫</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>沃尔夫冈·阿玛多伊斯·莫扎特</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>迪米特里·坎泰米尔</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>弗朗茨·李斯特</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>米科拉·莱昂托维奇（官方错译为尼古拉·李森科）</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1815,8 +1816,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O12" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="W17" sqref="W17"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1937,7 +1938,7 @@
         <v>18</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>19</v>
@@ -1973,7 +1974,7 @@
         <v>26</v>
       </c>
       <c r="S2" s="16" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="T2" s="2" t="s">
         <v>27</v>
@@ -1985,7 +1986,7 @@
         <v>29</v>
       </c>
       <c r="W2" s="16" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="3" spans="1:25" ht="27" x14ac:dyDescent="0.15">
@@ -2023,7 +2024,7 @@
         <v>39</v>
       </c>
       <c r="L3" s="11" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="M3" s="9" t="s">
         <v>40</v>
@@ -2035,7 +2036,7 @@
         <v>42</v>
       </c>
       <c r="P3" s="16" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="Q3" s="3" t="s">
         <v>43</v>
@@ -2044,7 +2045,7 @@
         <v>15</v>
       </c>
       <c r="S3" s="16" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="T3" s="2" t="s">
         <v>44</v>
@@ -2053,13 +2054,13 @@
         <v>45</v>
       </c>
       <c r="V3" s="10" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="W3" s="16" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="X3" s="10" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="4" spans="1:25" ht="40.5" x14ac:dyDescent="0.15">
@@ -2109,7 +2110,7 @@
         <v>15</v>
       </c>
       <c r="P4" s="16" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="Q4" s="2" t="s">
         <v>57</v>
@@ -2118,16 +2119,16 @@
         <v>15</v>
       </c>
       <c r="S4" s="16" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="T4" s="4" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="U4" s="9" t="s">
         <v>58</v>
       </c>
       <c r="W4" s="16" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="5" spans="1:25" ht="40.5" x14ac:dyDescent="0.15">
@@ -2165,25 +2166,25 @@
         <v>67</v>
       </c>
       <c r="L5" s="15" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="M5" s="16" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="N5" s="2" t="s">
         <v>68</v>
       </c>
       <c r="O5" s="13" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="P5" s="16" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="Q5" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="R5" s="15" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="S5" s="8" t="s">
         <v>69</v>
@@ -2195,10 +2196,10 @@
         <v>70</v>
       </c>
       <c r="W5" s="16" t="s">
+        <v>418</v>
+      </c>
+      <c r="X5" s="10" t="s">
         <v>419</v>
-      </c>
-      <c r="X5" s="10" t="s">
-        <v>420</v>
       </c>
     </row>
     <row r="6" spans="1:25" ht="27" x14ac:dyDescent="0.15">
@@ -2248,7 +2249,7 @@
         <v>15</v>
       </c>
       <c r="P6" s="16" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="Q6" s="2" t="s">
         <v>84</v>
@@ -2269,12 +2270,12 @@
         <v>87</v>
       </c>
       <c r="W6" s="16" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="7" spans="1:25" ht="27" x14ac:dyDescent="0.15">
       <c r="A7" s="6" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>88</v>
@@ -2283,7 +2284,7 @@
         <v>89</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>90</v>
@@ -2328,16 +2329,16 @@
         <v>101</v>
       </c>
       <c r="S7" s="16" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="T7" s="2" t="s">
         <v>29</v>
       </c>
       <c r="U7" s="16" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="W7" s="16" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="X7" s="13" t="s">
         <v>102</v>
@@ -2355,13 +2356,13 @@
         <v>105</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>106</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G8" s="8" t="s">
         <v>107</v>
@@ -2403,13 +2404,13 @@
         <v>116</v>
       </c>
       <c r="T8" s="4" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="U8" s="9" t="s">
         <v>117</v>
       </c>
       <c r="W8" s="16" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="X8" s="3" t="s">
         <v>118</v>
@@ -2423,7 +2424,7 @@
         <v>120</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>121</v>
@@ -2432,16 +2433,16 @@
         <v>122</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="G9" s="8" t="s">
         <v>123</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="I9" s="15" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="J9" s="9" t="s">
         <v>124</v>
@@ -2471,10 +2472,10 @@
         <v>15</v>
       </c>
       <c r="S9" s="16" t="s">
+        <v>399</v>
+      </c>
+      <c r="T9" s="4" t="s">
         <v>400</v>
-      </c>
-      <c r="T9" s="4" t="s">
-        <v>401</v>
       </c>
       <c r="U9" s="9" t="s">
         <v>132</v>
@@ -2533,7 +2534,7 @@
         <v>15</v>
       </c>
       <c r="P10" s="16" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="Q10" s="2" t="s">
         <v>147</v>
@@ -2542,10 +2543,10 @@
         <v>15</v>
       </c>
       <c r="S10" s="16" t="s">
+        <v>401</v>
+      </c>
+      <c r="T10" s="4" t="s">
         <v>402</v>
-      </c>
-      <c r="T10" s="4" t="s">
-        <v>403</v>
       </c>
       <c r="U10" s="8" t="s">
         <v>148</v>
@@ -2571,7 +2572,7 @@
         <v>154</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="G11" s="8" t="s">
         <v>155</v>
@@ -2601,7 +2602,7 @@
         <v>15</v>
       </c>
       <c r="P11" s="16" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="Q11" s="2" t="s">
         <v>162</v>
@@ -2633,13 +2634,13 @@
         <v>15</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="I12" s="2"/>
       <c r="J12" s="8" t="s">
@@ -2652,7 +2653,7 @@
         <v>171</v>
       </c>
       <c r="M12" s="16" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="N12" s="2" t="s">
         <v>172</v>
@@ -2667,7 +2668,7 @@
         <v>174</v>
       </c>
       <c r="R12" s="15" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="S12" s="8" t="s">
         <v>175</v>
@@ -2723,7 +2724,7 @@
         <v>189</v>
       </c>
       <c r="P13" s="16" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="Q13" s="2" t="s">
         <v>190</v>
@@ -2732,10 +2733,10 @@
         <v>191</v>
       </c>
       <c r="S13" s="16" t="s">
+        <v>403</v>
+      </c>
+      <c r="T13" s="4" t="s">
         <v>404</v>
-      </c>
-      <c r="T13" s="4" t="s">
-        <v>405</v>
       </c>
       <c r="U13" s="8" t="s">
         <v>192</v>
@@ -2744,7 +2745,7 @@
         <v>193</v>
       </c>
       <c r="X13" s="10" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="14" spans="1:25" ht="40.5" x14ac:dyDescent="0.15">
@@ -2782,16 +2783,16 @@
         <v>203</v>
       </c>
       <c r="O14" s="13" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="P14" s="16" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="Q14" s="2" t="s">
         <v>204</v>
       </c>
       <c r="R14" s="15" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="S14" s="8" t="s">
         <v>205</v>
@@ -2800,7 +2801,7 @@
         <v>29</v>
       </c>
       <c r="U14" s="16" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="W14" s="8" t="s">
         <v>206</v>
@@ -2856,16 +2857,16 @@
         <v>220</v>
       </c>
       <c r="T15" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="U15" s="16" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="W15" s="8" t="s">
         <v>221</v>
       </c>
       <c r="X15" s="4" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="16" spans="1:25" ht="27" x14ac:dyDescent="0.15">
@@ -2903,10 +2904,10 @@
         <v>230</v>
       </c>
       <c r="O16" s="13" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="P16" s="16" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="Q16" s="2" t="s">
         <v>231</v>
@@ -2965,7 +2966,7 @@
         <v>244</v>
       </c>
       <c r="P17" s="16" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="Q17" s="2" t="s">
         <v>245</v>
@@ -2980,10 +2981,10 @@
         <v>29</v>
       </c>
       <c r="U17" s="16" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="W17" s="6" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="18" spans="1:24" ht="67.5" x14ac:dyDescent="0.15">
@@ -2991,10 +2992,10 @@
         <v>247</v>
       </c>
       <c r="B18" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="C18" s="11" t="s">
         <v>348</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>349</v>
       </c>
       <c r="D18" s="7" t="s">
         <v>248</v>
@@ -3024,7 +3025,7 @@
         <v>255</v>
       </c>
       <c r="P18" s="16" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="Q18" s="2" t="s">
         <v>256</v>
@@ -3042,13 +3043,13 @@
         <v>258</v>
       </c>
       <c r="V18" s="4" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="W18" s="16" t="s">
+        <v>422</v>
+      </c>
+      <c r="X18" s="10" t="s">
         <v>423</v>
-      </c>
-      <c r="X18" s="10" t="s">
-        <v>424</v>
       </c>
     </row>
     <row r="19" spans="1:24" ht="40.5" x14ac:dyDescent="0.15">
@@ -3059,7 +3060,7 @@
         <v>260</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>261</v>
@@ -3068,7 +3069,7 @@
         <v>262</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="J19" s="8" t="s">
         <v>263</v>
@@ -3086,10 +3087,10 @@
         <v>266</v>
       </c>
       <c r="O19" s="13" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="P19" s="16" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="Q19" s="2" t="s">
         <v>67</v>
@@ -3101,7 +3102,7 @@
         <v>268</v>
       </c>
       <c r="T19" s="4" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="U19" s="8" t="s">
         <v>269</v>
@@ -3109,7 +3110,7 @@
     </row>
     <row r="20" spans="1:24" ht="54" x14ac:dyDescent="0.15">
       <c r="A20" s="6" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>270</v>
@@ -3118,7 +3119,7 @@
         <v>271</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>272</v>
@@ -3142,7 +3143,7 @@
         <v>277</v>
       </c>
       <c r="O20" s="13" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="P20" s="9" t="s">
         <v>278</v>
@@ -3189,265 +3190,265 @@
         <v>289</v>
       </c>
       <c r="L21" s="15" t="s">
-        <v>373</v>
-      </c>
-      <c r="M21" s="8" t="s">
+        <v>372</v>
+      </c>
+      <c r="M21" s="16" t="s">
+        <v>430</v>
+      </c>
+      <c r="N21" s="2" t="s">
         <v>290</v>
-      </c>
-      <c r="N21" s="2" t="s">
-        <v>291</v>
       </c>
       <c r="O21" s="13" t="s">
         <v>15</v>
       </c>
       <c r="P21" s="9" t="s">
+        <v>291</v>
+      </c>
+      <c r="Q21" s="2" t="s">
         <v>292</v>
-      </c>
-      <c r="Q21" s="2" t="s">
-        <v>293</v>
       </c>
       <c r="R21" s="15" t="s">
         <v>171</v>
       </c>
       <c r="S21" s="8" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="T21" s="2" t="s">
         <v>29</v>
       </c>
       <c r="U21" s="8" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="22" spans="1:24" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A22" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="C22" s="11" t="s">
         <v>297</v>
       </c>
-      <c r="C22" s="11" t="s">
+      <c r="D22" s="5" t="s">
         <v>298</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="E22" s="2" t="s">
         <v>299</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>300</v>
       </c>
       <c r="F22" s="11" t="s">
         <v>15</v>
       </c>
       <c r="J22" s="9" t="s">
+        <v>300</v>
+      </c>
+      <c r="K22" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="K22" s="2" t="s">
+      <c r="L22" s="15" t="s">
         <v>302</v>
       </c>
-      <c r="L22" s="15" t="s">
+      <c r="M22" s="9" t="s">
         <v>303</v>
       </c>
-      <c r="M22" s="9" t="s">
+      <c r="N22" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="N22" s="2" t="s">
+      <c r="O22" s="13" t="s">
         <v>305</v>
       </c>
-      <c r="O22" s="13" t="s">
+      <c r="P22" s="9" t="s">
         <v>306</v>
       </c>
-      <c r="P22" s="9" t="s">
+      <c r="Q22" s="2" t="s">
         <v>307</v>
-      </c>
-      <c r="Q22" s="2" t="s">
-        <v>308</v>
       </c>
       <c r="R22" s="15" t="s">
         <v>15</v>
       </c>
       <c r="S22" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="T22" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="U22" s="8" t="s">
         <v>309</v>
-      </c>
-      <c r="T22" s="4" t="s">
-        <v>408</v>
-      </c>
-      <c r="U22" s="8" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="23" spans="1:24" ht="54" x14ac:dyDescent="0.15">
       <c r="A23" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="C23" s="11" t="s">
         <v>312</v>
       </c>
-      <c r="C23" s="11" t="s">
+      <c r="D23" s="6" t="s">
+        <v>364</v>
+      </c>
+      <c r="E23" s="3" t="s">
         <v>313</v>
       </c>
-      <c r="D23" s="6" t="s">
-        <v>365</v>
-      </c>
-      <c r="E23" s="3" t="s">
+      <c r="F23" s="12" t="s">
         <v>314</v>
       </c>
-      <c r="F23" s="12" t="s">
+      <c r="J23" s="8" t="s">
         <v>315</v>
-      </c>
-      <c r="J23" s="8" t="s">
-        <v>316</v>
       </c>
       <c r="K23" s="2" t="s">
         <v>279</v>
       </c>
       <c r="L23" s="15" t="s">
+        <v>316</v>
+      </c>
+      <c r="O23" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="P23" s="9" t="s">
         <v>317</v>
       </c>
-      <c r="O23" s="4" t="s">
-        <v>370</v>
-      </c>
-      <c r="P23" s="9" t="s">
+      <c r="Q23" s="2" t="s">
         <v>318</v>
-      </c>
-      <c r="Q23" s="2" t="s">
-        <v>319</v>
       </c>
       <c r="R23" s="15" t="s">
         <v>171</v>
       </c>
       <c r="S23" s="8" t="s">
+        <v>319</v>
+      </c>
+      <c r="T23" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="U23" s="9" t="s">
         <v>320</v>
-      </c>
-      <c r="T23" s="4" t="s">
-        <v>409</v>
-      </c>
-      <c r="U23" s="9" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="24" spans="1:24" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A24" s="6" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D24" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="E24" s="3" t="s">
         <v>322</v>
       </c>
-      <c r="E24" s="3" t="s">
+      <c r="F24" s="11" t="s">
         <v>323</v>
       </c>
-      <c r="F24" s="11" t="s">
+      <c r="J24" s="8" t="s">
         <v>324</v>
       </c>
-      <c r="J24" s="8" t="s">
+      <c r="K24" s="2" t="s">
         <v>325</v>
-      </c>
-      <c r="K24" s="2" t="s">
-        <v>326</v>
       </c>
       <c r="L24" s="11" t="s">
         <v>171</v>
       </c>
       <c r="P24" s="8" t="s">
+        <v>326</v>
+      </c>
+      <c r="Q24" s="2" t="s">
         <v>327</v>
-      </c>
-      <c r="Q24" s="2" t="s">
-        <v>328</v>
       </c>
       <c r="R24" s="15" t="s">
         <v>171</v>
       </c>
       <c r="S24" s="9" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="T24" s="2" t="s">
         <v>29</v>
       </c>
       <c r="U24" s="8" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="25" spans="1:24" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A25" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="C25" s="11" t="s">
         <v>332</v>
       </c>
-      <c r="C25" s="11" t="s">
+      <c r="D25" s="7" t="s">
         <v>333</v>
       </c>
-      <c r="D25" s="7" t="s">
+      <c r="E25" s="3" t="s">
         <v>334</v>
       </c>
-      <c r="E25" s="3" t="s">
+      <c r="F25" s="11" t="s">
         <v>335</v>
       </c>
-      <c r="F25" s="11" t="s">
+      <c r="J25" s="9" t="s">
         <v>336</v>
       </c>
-      <c r="J25" s="9" t="s">
-        <v>337</v>
-      </c>
       <c r="K25" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="L25" s="11" t="s">
         <v>171</v>
       </c>
       <c r="R25" s="11" t="s">
+        <v>337</v>
+      </c>
+      <c r="U25" s="8" t="s">
         <v>338</v>
-      </c>
-      <c r="U25" s="8" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="26" spans="1:24" s="1" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A26" s="7"/>
       <c r="C26" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D26" s="7"/>
       <c r="F26" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G26" s="7"/>
       <c r="J26" s="7"/>
       <c r="L26" s="11" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="M26" s="7"/>
       <c r="P26" s="7"/>
       <c r="S26" s="7"/>
       <c r="U26" s="7" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="W26" s="7"/>
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.15">
       <c r="U27" s="8" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.15">
       <c r="U28" s="8" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="29" spans="1:24" x14ac:dyDescent="0.15">
       <c r="C29" s="3"/>
       <c r="U29" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="30" spans="1:24" x14ac:dyDescent="0.15">
       <c r="U30" s="16" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="49" ht="70.900000000000006" customHeight="1" x14ac:dyDescent="0.15"/>

--- a/文档/伟人.xlsx
+++ b/文档/伟人.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Admin\Documents\GitHub\Sistine_civ6mod\文档\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DFA364D-A622-435F-B1AE-452076DEF7C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D28E66CF-572A-445F-9CE7-66986F9F3F76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1404,7 +1404,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1435,33 +1435,18 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF92D050"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1484,7 +1469,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1500,44 +1485,41 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1816,26 +1798,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="25" style="8" customWidth="1"/>
     <col min="2" max="2" width="30.875" customWidth="1"/>
-    <col min="3" max="3" width="36.25" customWidth="1"/>
+    <col min="3" max="3" width="36.25" style="12" customWidth="1"/>
     <col min="4" max="4" width="20.625" style="8" customWidth="1"/>
     <col min="5" max="5" width="34.875" customWidth="1"/>
-    <col min="6" max="6" width="24" customWidth="1"/>
+    <col min="6" max="6" width="24" style="12" customWidth="1"/>
     <col min="7" max="7" width="36.75" style="8" customWidth="1"/>
-    <col min="8" max="9" width="20.625" customWidth="1"/>
+    <col min="8" max="8" width="20.625" customWidth="1"/>
+    <col min="9" max="9" width="20.625" style="12" customWidth="1"/>
     <col min="10" max="10" width="20.625" style="8" customWidth="1"/>
-    <col min="11" max="12" width="20.625" customWidth="1"/>
+    <col min="11" max="11" width="20.625" customWidth="1"/>
+    <col min="12" max="12" width="20.625" style="12" customWidth="1"/>
     <col min="13" max="13" width="20.625" style="8" customWidth="1"/>
-    <col min="14" max="15" width="20.625" customWidth="1"/>
+    <col min="14" max="14" width="20.625" customWidth="1"/>
+    <col min="15" max="15" width="20.625" style="12" customWidth="1"/>
     <col min="16" max="16" width="20.625" style="8" customWidth="1"/>
-    <col min="17" max="18" width="20.625" customWidth="1"/>
+    <col min="17" max="17" width="20.625" customWidth="1"/>
+    <col min="18" max="18" width="20.625" style="12" customWidth="1"/>
     <col min="19" max="19" width="20.25" style="8" customWidth="1"/>
     <col min="20" max="20" width="23" customWidth="1"/>
     <col min="21" max="21" width="24.75" style="8" customWidth="1"/>
@@ -1851,7 +1837,7 @@
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="12" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="9" t="s">
@@ -1860,7 +1846,7 @@
       <c r="E1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="12" t="s">
         <v>2</v>
       </c>
       <c r="G1" s="9" t="s">
@@ -1869,7 +1855,7 @@
       <c r="H1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="12" t="s">
         <v>2</v>
       </c>
       <c r="J1" s="9" t="s">
@@ -1878,7 +1864,7 @@
       <c r="K1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="12" t="s">
         <v>2</v>
       </c>
       <c r="M1" s="9" t="s">
@@ -1887,7 +1873,7 @@
       <c r="N1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="O1" s="12" t="s">
         <v>2</v>
       </c>
       <c r="P1" s="9" t="s">
@@ -1896,7 +1882,7 @@
       <c r="Q1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="R1" s="12" t="s">
         <v>2</v>
       </c>
       <c r="S1" s="9" t="s">
@@ -1925,7 +1911,7 @@
       <c r="B2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="15" t="s">
         <v>15</v>
       </c>
       <c r="D2" s="5" t="s">
@@ -1934,16 +1920,16 @@
       <c r="E2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="16" t="s">
+      <c r="G2" s="11" t="s">
         <v>381</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="17" t="s">
+      <c r="I2" s="12" t="s">
         <v>15</v>
       </c>
       <c r="J2" s="9" t="s">
@@ -1952,7 +1938,7 @@
       <c r="K2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="L2" s="11" t="s">
+      <c r="L2" s="15" t="s">
         <v>15</v>
       </c>
       <c r="M2" s="8" t="s">
@@ -1961,7 +1947,7 @@
       <c r="N2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="O2" s="11" t="s">
+      <c r="O2" s="14" t="s">
         <v>15</v>
       </c>
       <c r="P2" s="9" t="s">
@@ -1973,7 +1959,7 @@
       <c r="R2" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="S2" s="16" t="s">
+      <c r="S2" s="11" t="s">
         <v>393</v>
       </c>
       <c r="T2" s="2" t="s">
@@ -1985,7 +1971,7 @@
       <c r="V2" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="W2" s="16" t="s">
+      <c r="W2" s="11" t="s">
         <v>416</v>
       </c>
     </row>
@@ -1996,7 +1982,7 @@
       <c r="B3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="15" t="s">
         <v>32</v>
       </c>
       <c r="D3" s="5" t="s">
@@ -2005,7 +1991,7 @@
       <c r="E3" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="15" t="s">
         <v>35</v>
       </c>
       <c r="G3" s="8" t="s">
@@ -2023,7 +2009,7 @@
       <c r="K3" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="L3" s="11" t="s">
+      <c r="L3" s="15" t="s">
         <v>370</v>
       </c>
       <c r="M3" s="9" t="s">
@@ -2032,19 +2018,19 @@
       <c r="N3" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="O3" s="13" t="s">
+      <c r="O3" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="P3" s="16" t="s">
+      <c r="P3" s="11" t="s">
         <v>382</v>
       </c>
       <c r="Q3" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="R3" s="14" t="s">
+      <c r="R3" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="S3" s="16" t="s">
+      <c r="S3" s="11" t="s">
         <v>394</v>
       </c>
       <c r="T3" s="2" t="s">
@@ -2056,10 +2042,10 @@
       <c r="V3" s="10" t="s">
         <v>409</v>
       </c>
-      <c r="W3" s="16" t="s">
+      <c r="W3" s="11" t="s">
         <v>425</v>
       </c>
-      <c r="X3" s="10" t="s">
+      <c r="X3" s="12" t="s">
         <v>417</v>
       </c>
     </row>
@@ -2070,7 +2056,7 @@
       <c r="B4" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="15" t="s">
         <v>48</v>
       </c>
       <c r="D4" s="5" t="s">
@@ -2079,7 +2065,7 @@
       <c r="E4" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="F4" s="15" t="s">
         <v>15</v>
       </c>
       <c r="G4" s="8" t="s">
@@ -2088,7 +2074,7 @@
       <c r="H4" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="I4" s="17" t="s">
+      <c r="I4" s="12" t="s">
         <v>53</v>
       </c>
       <c r="J4" s="8" t="s">
@@ -2097,7 +2083,7 @@
       <c r="K4" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="L4" s="11" t="s">
+      <c r="L4" s="15" t="s">
         <v>26</v>
       </c>
       <c r="M4" s="9" t="s">
@@ -2106,19 +2092,19 @@
       <c r="N4" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="O4" s="11" t="s">
+      <c r="O4" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="P4" s="16" t="s">
+      <c r="P4" s="11" t="s">
         <v>383</v>
       </c>
       <c r="Q4" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="R4" s="11" t="s">
+      <c r="R4" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="S4" s="16" t="s">
+      <c r="S4" s="11" t="s">
         <v>395</v>
       </c>
       <c r="T4" s="4" t="s">
@@ -2127,9 +2113,10 @@
       <c r="U4" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="W4" s="16" t="s">
+      <c r="W4" s="11" t="s">
         <v>424</v>
       </c>
+      <c r="X4" s="12"/>
     </row>
     <row r="5" spans="1:25" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A5" s="5" t="s">
@@ -2138,7 +2125,7 @@
       <c r="B5" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="15" t="s">
         <v>15</v>
       </c>
       <c r="D5" s="7" t="s">
@@ -2147,7 +2134,7 @@
       <c r="E5" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="F5" s="15" t="s">
         <v>15</v>
       </c>
       <c r="G5" s="8" t="s">
@@ -2168,16 +2155,16 @@
       <c r="L5" s="15" t="s">
         <v>371</v>
       </c>
-      <c r="M5" s="16" t="s">
+      <c r="M5" s="11" t="s">
         <v>379</v>
       </c>
       <c r="N5" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="O5" s="13" t="s">
+      <c r="O5" s="14" t="s">
         <v>365</v>
       </c>
-      <c r="P5" s="16" t="s">
+      <c r="P5" s="11" t="s">
         <v>384</v>
       </c>
       <c r="Q5" s="4" t="s">
@@ -2195,10 +2182,10 @@
       <c r="U5" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="W5" s="16" t="s">
+      <c r="W5" s="11" t="s">
         <v>418</v>
       </c>
-      <c r="X5" s="10" t="s">
+      <c r="X5" s="13" t="s">
         <v>419</v>
       </c>
     </row>
@@ -2209,7 +2196,7 @@
       <c r="B6" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="15" t="s">
         <v>73</v>
       </c>
       <c r="D6" s="5" t="s">
@@ -2218,7 +2205,7 @@
       <c r="E6" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="F6" s="11" t="s">
+      <c r="F6" s="15" t="s">
         <v>75</v>
       </c>
       <c r="G6" s="8" t="s">
@@ -2245,10 +2232,10 @@
       <c r="N6" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="O6" s="11" t="s">
+      <c r="O6" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="P6" s="16" t="s">
+      <c r="P6" s="11" t="s">
         <v>385</v>
       </c>
       <c r="Q6" s="2" t="s">
@@ -2269,9 +2256,10 @@
       <c r="V6" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="W6" s="16" t="s">
+      <c r="W6" s="11" t="s">
         <v>426</v>
       </c>
+      <c r="X6" s="13"/>
     </row>
     <row r="7" spans="1:25" ht="27" x14ac:dyDescent="0.15">
       <c r="A7" s="6" t="s">
@@ -2280,7 +2268,7 @@
       <c r="B7" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="15" t="s">
         <v>89</v>
       </c>
       <c r="D7" s="6" t="s">
@@ -2289,7 +2277,7 @@
       <c r="E7" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="F7" s="11" t="s">
+      <c r="F7" s="15" t="s">
         <v>15</v>
       </c>
       <c r="G7" s="8" t="s">
@@ -2307,7 +2295,7 @@
       <c r="K7" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="L7" s="11" t="s">
+      <c r="L7" s="15" t="s">
         <v>15</v>
       </c>
       <c r="M7" s="8" t="s">
@@ -2316,7 +2304,7 @@
       <c r="N7" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="O7" s="13" t="s">
+      <c r="O7" s="14" t="s">
         <v>98</v>
       </c>
       <c r="P7" s="8" t="s">
@@ -2328,19 +2316,19 @@
       <c r="R7" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="S7" s="16" t="s">
+      <c r="S7" s="11" t="s">
         <v>396</v>
       </c>
       <c r="T7" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="U7" s="16" t="s">
+      <c r="U7" s="11" t="s">
         <v>412</v>
       </c>
-      <c r="W7" s="16" t="s">
+      <c r="W7" s="11" t="s">
         <v>427</v>
       </c>
-      <c r="X7" s="13" t="s">
+      <c r="X7" s="14" t="s">
         <v>102</v>
       </c>
       <c r="Y7" s="2"/>
@@ -2352,7 +2340,7 @@
       <c r="B8" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="15" t="s">
         <v>105</v>
       </c>
       <c r="D8" s="6" t="s">
@@ -2361,7 +2349,7 @@
       <c r="E8" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="F8" s="11" t="s">
+      <c r="F8" s="15" t="s">
         <v>354</v>
       </c>
       <c r="G8" s="8" t="s">
@@ -2379,7 +2367,7 @@
       <c r="K8" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="L8" s="11" t="s">
+      <c r="L8" s="15" t="s">
         <v>26</v>
       </c>
       <c r="M8" s="8" t="s">
@@ -2388,7 +2376,7 @@
       <c r="N8" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="O8" s="13" t="s">
+      <c r="O8" s="14" t="s">
         <v>113</v>
       </c>
       <c r="P8" s="9" t="s">
@@ -2397,7 +2385,7 @@
       <c r="Q8" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="R8" s="11" t="s">
+      <c r="R8" s="15" t="s">
         <v>15</v>
       </c>
       <c r="S8" s="8" t="s">
@@ -2409,10 +2397,10 @@
       <c r="U8" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="W8" s="16" t="s">
+      <c r="W8" s="11" t="s">
         <v>428</v>
       </c>
-      <c r="X8" s="3" t="s">
+      <c r="X8" s="13" t="s">
         <v>118</v>
       </c>
     </row>
@@ -2423,7 +2411,7 @@
       <c r="B9" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="15" t="s">
         <v>346</v>
       </c>
       <c r="D9" s="7" t="s">
@@ -2432,7 +2420,7 @@
       <c r="E9" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="F9" s="11" t="s">
+      <c r="F9" s="15" t="s">
         <v>358</v>
       </c>
       <c r="G9" s="8" t="s">
@@ -2450,7 +2438,7 @@
       <c r="K9" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="L9" s="11" t="s">
+      <c r="L9" s="15" t="s">
         <v>126</v>
       </c>
       <c r="M9" s="8" t="s">
@@ -2459,7 +2447,7 @@
       <c r="N9" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="O9" s="13" t="s">
+      <c r="O9" s="14" t="s">
         <v>129</v>
       </c>
       <c r="P9" s="9" t="s">
@@ -2468,10 +2456,10 @@
       <c r="Q9" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="R9" s="11" t="s">
+      <c r="R9" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="S9" s="16" t="s">
+      <c r="S9" s="11" t="s">
         <v>399</v>
       </c>
       <c r="T9" s="4" t="s">
@@ -2483,7 +2471,7 @@
       <c r="W9" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="X9" s="11" t="s">
+      <c r="X9" s="14" t="s">
         <v>134</v>
       </c>
     </row>
@@ -2494,7 +2482,7 @@
       <c r="B10" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="15" t="s">
         <v>137</v>
       </c>
       <c r="D10" s="7" t="s">
@@ -2503,7 +2491,7 @@
       <c r="E10" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="F10" s="11" t="s">
+      <c r="F10" s="15" t="s">
         <v>15</v>
       </c>
       <c r="G10" s="8" t="s">
@@ -2521,7 +2509,7 @@
       <c r="K10" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="L10" s="11" t="s">
+      <c r="L10" s="15" t="s">
         <v>26</v>
       </c>
       <c r="M10" s="8" t="s">
@@ -2530,19 +2518,19 @@
       <c r="N10" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="O10" s="11" t="s">
+      <c r="O10" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="P10" s="16" t="s">
+      <c r="P10" s="11" t="s">
         <v>386</v>
       </c>
       <c r="Q10" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="R10" s="11" t="s">
+      <c r="R10" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="S10" s="16" t="s">
+      <c r="S10" s="11" t="s">
         <v>401</v>
       </c>
       <c r="T10" s="4" t="s">
@@ -2554,6 +2542,7 @@
       <c r="W10" s="9" t="s">
         <v>149</v>
       </c>
+      <c r="X10" s="13"/>
     </row>
     <row r="11" spans="1:25" ht="27" x14ac:dyDescent="0.15">
       <c r="A11" s="7" t="s">
@@ -2562,7 +2551,7 @@
       <c r="B11" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="15" t="s">
         <v>152</v>
       </c>
       <c r="D11" s="7" t="s">
@@ -2571,7 +2560,7 @@
       <c r="E11" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="F11" s="11" t="s">
+      <c r="F11" s="15" t="s">
         <v>357</v>
       </c>
       <c r="G11" s="8" t="s">
@@ -2589,7 +2578,7 @@
       <c r="K11" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="L11" s="11" t="s">
+      <c r="L11" s="15" t="s">
         <v>15</v>
       </c>
       <c r="M11" s="9" t="s">
@@ -2598,16 +2587,16 @@
       <c r="N11" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="O11" s="13" t="s">
+      <c r="O11" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="P11" s="16" t="s">
+      <c r="P11" s="11" t="s">
         <v>387</v>
       </c>
       <c r="Q11" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="R11" s="11" t="s">
+      <c r="R11" s="15" t="s">
         <v>15</v>
       </c>
       <c r="S11" s="8" t="s">
@@ -2622,6 +2611,7 @@
       <c r="W11" s="8" t="s">
         <v>166</v>
       </c>
+      <c r="X11" s="13"/>
     </row>
     <row r="12" spans="1:25" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A12" s="5" t="s">
@@ -2630,7 +2620,7 @@
       <c r="B12" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="15" t="s">
         <v>15</v>
       </c>
       <c r="D12" s="6" t="s">
@@ -2639,26 +2629,26 @@
       <c r="E12" s="10" t="s">
         <v>356</v>
       </c>
-      <c r="F12" s="11" t="s">
+      <c r="F12" s="15" t="s">
         <v>355</v>
       </c>
-      <c r="I12" s="2"/>
+      <c r="I12" s="15"/>
       <c r="J12" s="8" t="s">
         <v>169</v>
       </c>
       <c r="K12" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="L12" s="11" t="s">
+      <c r="L12" s="15" t="s">
         <v>171</v>
       </c>
-      <c r="M12" s="16" t="s">
+      <c r="M12" s="11" t="s">
         <v>380</v>
       </c>
       <c r="N12" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="O12" s="11" t="s">
+      <c r="O12" s="14" t="s">
         <v>15</v>
       </c>
       <c r="P12" s="8" t="s">
@@ -2682,7 +2672,7 @@
       <c r="W12" s="8" t="s">
         <v>177</v>
       </c>
-      <c r="X12" s="13" t="s">
+      <c r="X12" s="14" t="s">
         <v>102</v>
       </c>
     </row>
@@ -2693,7 +2683,7 @@
       <c r="B13" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="15" t="s">
         <v>180</v>
       </c>
       <c r="D13" s="5" t="s">
@@ -2702,7 +2692,7 @@
       <c r="E13" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="F13" s="11" t="s">
+      <c r="F13" s="15" t="s">
         <v>183</v>
       </c>
       <c r="J13" s="8" t="s">
@@ -2720,10 +2710,10 @@
       <c r="N13" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="O13" s="13" t="s">
+      <c r="O13" s="14" t="s">
         <v>189</v>
       </c>
-      <c r="P13" s="16" t="s">
+      <c r="P13" s="11" t="s">
         <v>389</v>
       </c>
       <c r="Q13" s="2" t="s">
@@ -2732,7 +2722,7 @@
       <c r="R13" s="15" t="s">
         <v>191</v>
       </c>
-      <c r="S13" s="16" t="s">
+      <c r="S13" s="11" t="s">
         <v>403</v>
       </c>
       <c r="T13" s="4" t="s">
@@ -2744,7 +2734,7 @@
       <c r="W13" s="8" t="s">
         <v>193</v>
       </c>
-      <c r="X13" s="10" t="s">
+      <c r="X13" s="13" t="s">
         <v>420</v>
       </c>
     </row>
@@ -2755,7 +2745,7 @@
       <c r="B14" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="C14" s="15" t="s">
         <v>196</v>
       </c>
       <c r="D14" s="7" t="s">
@@ -2764,7 +2754,7 @@
       <c r="E14" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="F14" s="11" t="s">
+      <c r="F14" s="15" t="s">
         <v>199</v>
       </c>
       <c r="J14" s="9" t="s">
@@ -2773,7 +2763,7 @@
       <c r="K14" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="L14" s="11" t="s">
+      <c r="L14" s="15" t="s">
         <v>15</v>
       </c>
       <c r="M14" s="9" t="s">
@@ -2782,10 +2772,10 @@
       <c r="N14" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="O14" s="13" t="s">
+      <c r="O14" s="14" t="s">
         <v>368</v>
       </c>
-      <c r="P14" s="16" t="s">
+      <c r="P14" s="11" t="s">
         <v>376</v>
       </c>
       <c r="Q14" s="2" t="s">
@@ -2800,12 +2790,13 @@
       <c r="T14" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="U14" s="16" t="s">
+      <c r="U14" s="11" t="s">
         <v>413</v>
       </c>
       <c r="W14" s="8" t="s">
         <v>206</v>
       </c>
+      <c r="X14" s="13"/>
     </row>
     <row r="15" spans="1:25" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A15" s="5" t="s">
@@ -2814,7 +2805,7 @@
       <c r="B15" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="C15" s="15" t="s">
         <v>209</v>
       </c>
       <c r="D15" s="5" t="s">
@@ -2823,7 +2814,7 @@
       <c r="E15" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="F15" s="11" t="s">
+      <c r="F15" s="15" t="s">
         <v>15</v>
       </c>
       <c r="J15" s="8" t="s">
@@ -2832,7 +2823,7 @@
       <c r="K15" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="L15" s="11" t="s">
+      <c r="L15" s="15" t="s">
         <v>26</v>
       </c>
       <c r="M15" s="9" t="s">
@@ -2841,7 +2832,7 @@
       <c r="N15" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="O15" s="13" t="s">
+      <c r="O15" s="14" t="s">
         <v>216</v>
       </c>
       <c r="P15" s="9" t="s">
@@ -2859,13 +2850,13 @@
       <c r="T15" s="4" t="s">
         <v>405</v>
       </c>
-      <c r="U15" s="16" t="s">
+      <c r="U15" s="11" t="s">
         <v>411</v>
       </c>
       <c r="W15" s="8" t="s">
         <v>221</v>
       </c>
-      <c r="X15" s="4" t="s">
+      <c r="X15" s="15" t="s">
         <v>421</v>
       </c>
     </row>
@@ -2876,7 +2867,7 @@
       <c r="B16" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="C16" s="15" t="s">
         <v>224</v>
       </c>
       <c r="D16" s="5" t="s">
@@ -2885,7 +2876,7 @@
       <c r="E16" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="F16" s="11" t="s">
+      <c r="F16" s="15" t="s">
         <v>15</v>
       </c>
       <c r="J16" s="8" t="s">
@@ -2894,7 +2885,7 @@
       <c r="K16" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="L16" s="11" t="s">
+      <c r="L16" s="15" t="s">
         <v>15</v>
       </c>
       <c r="M16" s="8" t="s">
@@ -2903,10 +2894,10 @@
       <c r="N16" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="O16" s="13" t="s">
+      <c r="O16" s="14" t="s">
         <v>368</v>
       </c>
-      <c r="P16" s="16" t="s">
+      <c r="P16" s="11" t="s">
         <v>388</v>
       </c>
       <c r="Q16" s="2" t="s">
@@ -2927,6 +2918,7 @@
       <c r="W16" s="8" t="s">
         <v>234</v>
       </c>
+      <c r="X16" s="12"/>
     </row>
     <row r="17" spans="1:24" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A17" s="5" t="s">
@@ -2935,7 +2927,7 @@
       <c r="B17" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="C17" s="15" t="s">
         <v>237</v>
       </c>
       <c r="D17" s="5" t="s">
@@ -2944,7 +2936,7 @@
       <c r="E17" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="F17" s="11" t="s">
+      <c r="F17" s="15" t="s">
         <v>15</v>
       </c>
       <c r="J17" s="8" t="s">
@@ -2953,7 +2945,7 @@
       <c r="K17" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="L17" s="11" t="s">
+      <c r="L17" s="15" t="s">
         <v>26</v>
       </c>
       <c r="M17" s="9" t="s">
@@ -2962,16 +2954,16 @@
       <c r="N17" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="O17" s="13" t="s">
+      <c r="O17" s="14" t="s">
         <v>244</v>
       </c>
-      <c r="P17" s="16" t="s">
+      <c r="P17" s="11" t="s">
         <v>392</v>
       </c>
       <c r="Q17" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="R17" s="11" t="s">
+      <c r="R17" s="15" t="s">
         <v>15</v>
       </c>
       <c r="S17" s="8" t="s">
@@ -2980,12 +2972,13 @@
       <c r="T17" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="U17" s="16" t="s">
+      <c r="U17" s="11" t="s">
         <v>414</v>
       </c>
       <c r="W17" s="6" t="s">
         <v>429</v>
       </c>
+      <c r="X17" s="12"/>
     </row>
     <row r="18" spans="1:24" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A18" s="5" t="s">
@@ -2994,7 +2987,7 @@
       <c r="B18" s="4" t="s">
         <v>347</v>
       </c>
-      <c r="C18" s="11" t="s">
+      <c r="C18" s="15" t="s">
         <v>348</v>
       </c>
       <c r="D18" s="7" t="s">
@@ -3003,7 +2996,7 @@
       <c r="E18" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="F18" s="11" t="s">
+      <c r="F18" s="15" t="s">
         <v>15</v>
       </c>
       <c r="J18" s="9" t="s">
@@ -3021,10 +3014,10 @@
       <c r="N18" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="O18" s="11" t="s">
+      <c r="O18" s="14" t="s">
         <v>255</v>
       </c>
-      <c r="P18" s="16" t="s">
+      <c r="P18" s="11" t="s">
         <v>390</v>
       </c>
       <c r="Q18" s="2" t="s">
@@ -3045,10 +3038,10 @@
       <c r="V18" s="4" t="s">
         <v>410</v>
       </c>
-      <c r="W18" s="16" t="s">
+      <c r="W18" s="11" t="s">
         <v>422</v>
       </c>
-      <c r="X18" s="10" t="s">
+      <c r="X18" s="12" t="s">
         <v>423</v>
       </c>
     </row>
@@ -3059,7 +3052,7 @@
       <c r="B19" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="C19" s="11" t="s">
+      <c r="C19" s="15" t="s">
         <v>349</v>
       </c>
       <c r="D19" s="5" t="s">
@@ -3068,7 +3061,7 @@
       <c r="E19" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="F19" s="11" t="s">
+      <c r="F19" s="15" t="s">
         <v>359</v>
       </c>
       <c r="J19" s="8" t="s">
@@ -3086,10 +3079,10 @@
       <c r="N19" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="O19" s="13" t="s">
+      <c r="O19" s="14" t="s">
         <v>367</v>
       </c>
-      <c r="P19" s="16" t="s">
+      <c r="P19" s="11" t="s">
         <v>391</v>
       </c>
       <c r="Q19" s="2" t="s">
@@ -3115,7 +3108,7 @@
       <c r="B20" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="C20" s="15" t="s">
         <v>271</v>
       </c>
       <c r="D20" s="6" t="s">
@@ -3124,7 +3117,7 @@
       <c r="E20" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="F20" s="12" t="s">
+      <c r="F20" s="16" t="s">
         <v>273</v>
       </c>
       <c r="J20" s="8" t="s">
@@ -3142,7 +3135,7 @@
       <c r="N20" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="O20" s="13" t="s">
+      <c r="O20" s="14" t="s">
         <v>366</v>
       </c>
       <c r="P20" s="9" t="s">
@@ -3171,7 +3164,7 @@
       <c r="B21" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="C21" s="11" t="s">
+      <c r="C21" s="15" t="s">
         <v>285</v>
       </c>
       <c r="D21" s="5" t="s">
@@ -3180,7 +3173,7 @@
       <c r="E21" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="F21" s="12" t="s">
+      <c r="F21" s="16" t="s">
         <v>273</v>
       </c>
       <c r="J21" s="8" t="s">
@@ -3192,13 +3185,13 @@
       <c r="L21" s="15" t="s">
         <v>372</v>
       </c>
-      <c r="M21" s="16" t="s">
+      <c r="M21" s="11" t="s">
         <v>430</v>
       </c>
       <c r="N21" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="O21" s="13" t="s">
+      <c r="O21" s="14" t="s">
         <v>15</v>
       </c>
       <c r="P21" s="9" t="s">
@@ -3227,7 +3220,7 @@
       <c r="B22" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="C22" s="11" t="s">
+      <c r="C22" s="15" t="s">
         <v>297</v>
       </c>
       <c r="D22" s="5" t="s">
@@ -3236,7 +3229,7 @@
       <c r="E22" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="F22" s="11" t="s">
+      <c r="F22" s="15" t="s">
         <v>15</v>
       </c>
       <c r="J22" s="9" t="s">
@@ -3254,7 +3247,7 @@
       <c r="N22" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="O22" s="13" t="s">
+      <c r="O22" s="14" t="s">
         <v>305</v>
       </c>
       <c r="P22" s="9" t="s">
@@ -3283,7 +3276,7 @@
       <c r="B23" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="C23" s="11" t="s">
+      <c r="C23" s="15" t="s">
         <v>312</v>
       </c>
       <c r="D23" s="6" t="s">
@@ -3292,7 +3285,7 @@
       <c r="E23" s="3" t="s">
         <v>313</v>
       </c>
-      <c r="F23" s="12" t="s">
+      <c r="F23" s="16" t="s">
         <v>314</v>
       </c>
       <c r="J23" s="8" t="s">
@@ -3304,7 +3297,7 @@
       <c r="L23" s="15" t="s">
         <v>316</v>
       </c>
-      <c r="O23" s="4" t="s">
+      <c r="O23" s="15" t="s">
         <v>369</v>
       </c>
       <c r="P23" s="9" t="s">
@@ -3333,7 +3326,7 @@
       <c r="B24" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="C24" s="11" t="s">
+      <c r="C24" s="15" t="s">
         <v>350</v>
       </c>
       <c r="D24" s="7" t="s">
@@ -3342,7 +3335,7 @@
       <c r="E24" s="3" t="s">
         <v>322</v>
       </c>
-      <c r="F24" s="11" t="s">
+      <c r="F24" s="15" t="s">
         <v>323</v>
       </c>
       <c r="J24" s="8" t="s">
@@ -3351,7 +3344,7 @@
       <c r="K24" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="L24" s="11" t="s">
+      <c r="L24" s="15" t="s">
         <v>171</v>
       </c>
       <c r="P24" s="8" t="s">
@@ -3380,7 +3373,7 @@
       <c r="B25" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="C25" s="11" t="s">
+      <c r="C25" s="15" t="s">
         <v>332</v>
       </c>
       <c r="D25" s="7" t="s">
@@ -3389,7 +3382,7 @@
       <c r="E25" s="3" t="s">
         <v>334</v>
       </c>
-      <c r="F25" s="11" t="s">
+      <c r="F25" s="15" t="s">
         <v>335</v>
       </c>
       <c r="J25" s="9" t="s">
@@ -3398,10 +3391,10 @@
       <c r="K25" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="L25" s="11" t="s">
+      <c r="L25" s="15" t="s">
         <v>171</v>
       </c>
-      <c r="R25" s="11" t="s">
+      <c r="R25" s="15" t="s">
         <v>337</v>
       </c>
       <c r="U25" s="8" t="s">
@@ -3410,20 +3403,23 @@
     </row>
     <row r="26" spans="1:24" s="1" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A26" s="7"/>
-      <c r="C26" s="2" t="s">
+      <c r="C26" s="15" t="s">
         <v>339</v>
       </c>
       <c r="D26" s="7"/>
-      <c r="F26" s="2" t="s">
+      <c r="F26" s="15" t="s">
         <v>340</v>
       </c>
       <c r="G26" s="7"/>
+      <c r="I26" s="15"/>
       <c r="J26" s="7"/>
-      <c r="L26" s="11" t="s">
+      <c r="L26" s="15" t="s">
         <v>341</v>
       </c>
       <c r="M26" s="7"/>
+      <c r="O26" s="15"/>
       <c r="P26" s="7"/>
+      <c r="R26" s="15"/>
       <c r="S26" s="7"/>
       <c r="U26" s="7" t="s">
         <v>342</v>
@@ -3441,13 +3437,12 @@
       </c>
     </row>
     <row r="29" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="C29" s="3"/>
       <c r="U29" s="8" t="s">
         <v>345</v>
       </c>
     </row>
     <row r="30" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="U30" s="16" t="s">
+      <c r="U30" s="11" t="s">
         <v>415</v>
       </c>
     </row>

--- a/文档/伟人.xlsx
+++ b/文档/伟人.xlsx
@@ -1,26 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Admin\Documents\GitHub\Sistine_civ6mod\文档\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D28E66CF-572A-445F-9CE7-66986F9F3F76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A55D96EB-D161-4E9F-A576-ABC107CF428E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="431">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="432">
   <si>
     <t>大科学家</t>
   </si>
@@ -1397,6 +1410,10 @@
   </si>
   <si>
     <t>沃纳·冯·布劳恩</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>星际战争</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1416,12 +1433,14 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1469,7 +1488,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1508,12 +1527,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1798,8 +1811,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+    <sheetView tabSelected="1" topLeftCell="G9" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="U29" sqref="U29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1911,7 +1924,7 @@
       <c r="B2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="13" t="s">
         <v>15</v>
       </c>
       <c r="D2" s="5" t="s">
@@ -1920,7 +1933,7 @@
       <c r="E2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="F2" s="13" t="s">
         <v>18</v>
       </c>
       <c r="G2" s="11" t="s">
@@ -1938,7 +1951,7 @@
       <c r="K2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="L2" s="15" t="s">
+      <c r="L2" s="13" t="s">
         <v>15</v>
       </c>
       <c r="M2" s="8" t="s">
@@ -1947,7 +1960,7 @@
       <c r="N2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="O2" s="14" t="s">
+      <c r="O2" s="13" t="s">
         <v>15</v>
       </c>
       <c r="P2" s="9" t="s">
@@ -1956,7 +1969,7 @@
       <c r="Q2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="R2" s="15" t="s">
+      <c r="R2" s="13" t="s">
         <v>26</v>
       </c>
       <c r="S2" s="11" t="s">
@@ -1982,7 +1995,7 @@
       <c r="B3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="13" t="s">
         <v>32</v>
       </c>
       <c r="D3" s="5" t="s">
@@ -1991,7 +2004,7 @@
       <c r="E3" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="F3" s="15" t="s">
+      <c r="F3" s="13" t="s">
         <v>35</v>
       </c>
       <c r="G3" s="8" t="s">
@@ -2000,7 +2013,7 @@
       <c r="H3" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="I3" s="15" t="s">
+      <c r="I3" s="13" t="s">
         <v>15</v>
       </c>
       <c r="J3" s="9" t="s">
@@ -2009,7 +2022,7 @@
       <c r="K3" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="L3" s="15" t="s">
+      <c r="L3" s="13" t="s">
         <v>370</v>
       </c>
       <c r="M3" s="9" t="s">
@@ -2018,7 +2031,7 @@
       <c r="N3" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="O3" s="14" t="s">
+      <c r="O3" s="13" t="s">
         <v>42</v>
       </c>
       <c r="P3" s="11" t="s">
@@ -2056,7 +2069,7 @@
       <c r="B4" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="13" t="s">
         <v>48</v>
       </c>
       <c r="D4" s="5" t="s">
@@ -2065,7 +2078,7 @@
       <c r="E4" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="F4" s="15" t="s">
+      <c r="F4" s="13" t="s">
         <v>15</v>
       </c>
       <c r="G4" s="8" t="s">
@@ -2083,7 +2096,7 @@
       <c r="K4" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="L4" s="15" t="s">
+      <c r="L4" s="13" t="s">
         <v>26</v>
       </c>
       <c r="M4" s="9" t="s">
@@ -2092,7 +2105,7 @@
       <c r="N4" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="O4" s="14" t="s">
+      <c r="O4" s="13" t="s">
         <v>15</v>
       </c>
       <c r="P4" s="11" t="s">
@@ -2101,7 +2114,7 @@
       <c r="Q4" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="R4" s="15" t="s">
+      <c r="R4" s="13" t="s">
         <v>15</v>
       </c>
       <c r="S4" s="11" t="s">
@@ -2125,7 +2138,7 @@
       <c r="B5" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="13" t="s">
         <v>15</v>
       </c>
       <c r="D5" s="7" t="s">
@@ -2134,7 +2147,7 @@
       <c r="E5" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="F5" s="15" t="s">
+      <c r="F5" s="13" t="s">
         <v>15</v>
       </c>
       <c r="G5" s="8" t="s">
@@ -2143,7 +2156,7 @@
       <c r="H5" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="I5" s="15" t="s">
+      <c r="I5" s="13" t="s">
         <v>65</v>
       </c>
       <c r="J5" s="8" t="s">
@@ -2152,7 +2165,7 @@
       <c r="K5" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="L5" s="15" t="s">
+      <c r="L5" s="13" t="s">
         <v>371</v>
       </c>
       <c r="M5" s="11" t="s">
@@ -2161,7 +2174,7 @@
       <c r="N5" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="O5" s="14" t="s">
+      <c r="O5" s="13" t="s">
         <v>365</v>
       </c>
       <c r="P5" s="11" t="s">
@@ -2170,7 +2183,7 @@
       <c r="Q5" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="R5" s="15" t="s">
+      <c r="R5" s="13" t="s">
         <v>373</v>
       </c>
       <c r="S5" s="8" t="s">
@@ -2185,7 +2198,7 @@
       <c r="W5" s="11" t="s">
         <v>418</v>
       </c>
-      <c r="X5" s="13" t="s">
+      <c r="X5" s="12" t="s">
         <v>419</v>
       </c>
     </row>
@@ -2196,7 +2209,7 @@
       <c r="B6" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="13" t="s">
         <v>73</v>
       </c>
       <c r="D6" s="5" t="s">
@@ -2205,7 +2218,7 @@
       <c r="E6" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="F6" s="15" t="s">
+      <c r="F6" s="13" t="s">
         <v>75</v>
       </c>
       <c r="G6" s="8" t="s">
@@ -2214,7 +2227,7 @@
       <c r="H6" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="I6" s="15" t="s">
+      <c r="I6" s="13" t="s">
         <v>78</v>
       </c>
       <c r="J6" s="8" t="s">
@@ -2223,7 +2236,7 @@
       <c r="K6" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="L6" s="15" t="s">
+      <c r="L6" s="13" t="s">
         <v>81</v>
       </c>
       <c r="M6" s="8" t="s">
@@ -2232,7 +2245,7 @@
       <c r="N6" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="O6" s="14" t="s">
+      <c r="O6" s="13" t="s">
         <v>15</v>
       </c>
       <c r="P6" s="11" t="s">
@@ -2241,7 +2254,7 @@
       <c r="Q6" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="R6" s="15" t="s">
+      <c r="R6" s="13" t="s">
         <v>26</v>
       </c>
       <c r="S6" s="8" t="s">
@@ -2259,7 +2272,7 @@
       <c r="W6" s="11" t="s">
         <v>426</v>
       </c>
-      <c r="X6" s="13"/>
+      <c r="X6" s="12"/>
     </row>
     <row r="7" spans="1:25" ht="27" x14ac:dyDescent="0.15">
       <c r="A7" s="6" t="s">
@@ -2268,7 +2281,7 @@
       <c r="B7" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="13" t="s">
         <v>89</v>
       </c>
       <c r="D7" s="6" t="s">
@@ -2277,7 +2290,7 @@
       <c r="E7" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="F7" s="15" t="s">
+      <c r="F7" s="13" t="s">
         <v>15</v>
       </c>
       <c r="G7" s="8" t="s">
@@ -2286,7 +2299,7 @@
       <c r="H7" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="I7" s="15" t="s">
+      <c r="I7" s="13" t="s">
         <v>93</v>
       </c>
       <c r="J7" s="9" t="s">
@@ -2295,7 +2308,7 @@
       <c r="K7" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="L7" s="15" t="s">
+      <c r="L7" s="13" t="s">
         <v>15</v>
       </c>
       <c r="M7" s="8" t="s">
@@ -2304,7 +2317,7 @@
       <c r="N7" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="O7" s="14" t="s">
+      <c r="O7" s="13" t="s">
         <v>98</v>
       </c>
       <c r="P7" s="8" t="s">
@@ -2313,7 +2326,7 @@
       <c r="Q7" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="R7" s="15" t="s">
+      <c r="R7" s="13" t="s">
         <v>101</v>
       </c>
       <c r="S7" s="11" t="s">
@@ -2328,7 +2341,7 @@
       <c r="W7" s="11" t="s">
         <v>427</v>
       </c>
-      <c r="X7" s="14" t="s">
+      <c r="X7" s="13" t="s">
         <v>102</v>
       </c>
       <c r="Y7" s="2"/>
@@ -2340,7 +2353,7 @@
       <c r="B8" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="13" t="s">
         <v>105</v>
       </c>
       <c r="D8" s="6" t="s">
@@ -2349,7 +2362,7 @@
       <c r="E8" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="F8" s="15" t="s">
+      <c r="F8" s="13" t="s">
         <v>354</v>
       </c>
       <c r="G8" s="8" t="s">
@@ -2358,7 +2371,7 @@
       <c r="H8" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="I8" s="15" t="s">
+      <c r="I8" s="13" t="s">
         <v>109</v>
       </c>
       <c r="J8" s="8" t="s">
@@ -2367,7 +2380,7 @@
       <c r="K8" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="L8" s="15" t="s">
+      <c r="L8" s="13" t="s">
         <v>26</v>
       </c>
       <c r="M8" s="8" t="s">
@@ -2376,7 +2389,7 @@
       <c r="N8" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="O8" s="14" t="s">
+      <c r="O8" s="13" t="s">
         <v>113</v>
       </c>
       <c r="P8" s="9" t="s">
@@ -2385,7 +2398,7 @@
       <c r="Q8" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="R8" s="15" t="s">
+      <c r="R8" s="13" t="s">
         <v>15</v>
       </c>
       <c r="S8" s="8" t="s">
@@ -2400,7 +2413,7 @@
       <c r="W8" s="11" t="s">
         <v>428</v>
       </c>
-      <c r="X8" s="13" t="s">
+      <c r="X8" s="12" t="s">
         <v>118</v>
       </c>
     </row>
@@ -2411,7 +2424,7 @@
       <c r="B9" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="13" t="s">
         <v>346</v>
       </c>
       <c r="D9" s="7" t="s">
@@ -2420,7 +2433,7 @@
       <c r="E9" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="F9" s="15" t="s">
+      <c r="F9" s="13" t="s">
         <v>358</v>
       </c>
       <c r="G9" s="8" t="s">
@@ -2429,7 +2442,7 @@
       <c r="H9" s="4" t="s">
         <v>378</v>
       </c>
-      <c r="I9" s="15" t="s">
+      <c r="I9" s="13" t="s">
         <v>377</v>
       </c>
       <c r="J9" s="9" t="s">
@@ -2438,7 +2451,7 @@
       <c r="K9" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="L9" s="15" t="s">
+      <c r="L9" s="13" t="s">
         <v>126</v>
       </c>
       <c r="M9" s="8" t="s">
@@ -2447,7 +2460,7 @@
       <c r="N9" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="O9" s="14" t="s">
+      <c r="O9" s="13" t="s">
         <v>129</v>
       </c>
       <c r="P9" s="9" t="s">
@@ -2456,7 +2469,7 @@
       <c r="Q9" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="R9" s="15" t="s">
+      <c r="R9" s="13" t="s">
         <v>15</v>
       </c>
       <c r="S9" s="11" t="s">
@@ -2471,7 +2484,7 @@
       <c r="W9" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="X9" s="14" t="s">
+      <c r="X9" s="13" t="s">
         <v>134</v>
       </c>
     </row>
@@ -2482,7 +2495,7 @@
       <c r="B10" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="C10" s="13" t="s">
         <v>137</v>
       </c>
       <c r="D10" s="7" t="s">
@@ -2491,7 +2504,7 @@
       <c r="E10" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="F10" s="15" t="s">
+      <c r="F10" s="13" t="s">
         <v>15</v>
       </c>
       <c r="G10" s="8" t="s">
@@ -2500,7 +2513,7 @@
       <c r="H10" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="I10" s="15" t="s">
+      <c r="I10" s="13" t="s">
         <v>142</v>
       </c>
       <c r="J10" s="9" t="s">
@@ -2509,7 +2522,7 @@
       <c r="K10" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="L10" s="15" t="s">
+      <c r="L10" s="13" t="s">
         <v>26</v>
       </c>
       <c r="M10" s="8" t="s">
@@ -2518,7 +2531,7 @@
       <c r="N10" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="O10" s="14" t="s">
+      <c r="O10" s="13" t="s">
         <v>15</v>
       </c>
       <c r="P10" s="11" t="s">
@@ -2527,7 +2540,7 @@
       <c r="Q10" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="R10" s="15" t="s">
+      <c r="R10" s="13" t="s">
         <v>15</v>
       </c>
       <c r="S10" s="11" t="s">
@@ -2542,7 +2555,7 @@
       <c r="W10" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="X10" s="13"/>
+      <c r="X10" s="12"/>
     </row>
     <row r="11" spans="1:25" ht="27" x14ac:dyDescent="0.15">
       <c r="A11" s="7" t="s">
@@ -2551,7 +2564,7 @@
       <c r="B11" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="C11" s="15" t="s">
+      <c r="C11" s="13" t="s">
         <v>152</v>
       </c>
       <c r="D11" s="7" t="s">
@@ -2560,7 +2573,7 @@
       <c r="E11" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="F11" s="15" t="s">
+      <c r="F11" s="13" t="s">
         <v>357</v>
       </c>
       <c r="G11" s="8" t="s">
@@ -2569,7 +2582,7 @@
       <c r="H11" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="I11" s="15" t="s">
+      <c r="I11" s="13" t="s">
         <v>157</v>
       </c>
       <c r="J11" s="9" t="s">
@@ -2578,7 +2591,7 @@
       <c r="K11" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="L11" s="15" t="s">
+      <c r="L11" s="13" t="s">
         <v>15</v>
       </c>
       <c r="M11" s="9" t="s">
@@ -2587,7 +2600,7 @@
       <c r="N11" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="O11" s="14" t="s">
+      <c r="O11" s="13" t="s">
         <v>15</v>
       </c>
       <c r="P11" s="11" t="s">
@@ -2596,7 +2609,7 @@
       <c r="Q11" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="R11" s="15" t="s">
+      <c r="R11" s="13" t="s">
         <v>15</v>
       </c>
       <c r="S11" s="8" t="s">
@@ -2611,7 +2624,7 @@
       <c r="W11" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="X11" s="13"/>
+      <c r="X11" s="12"/>
     </row>
     <row r="12" spans="1:25" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A12" s="5" t="s">
@@ -2620,7 +2633,7 @@
       <c r="B12" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="C12" s="15" t="s">
+      <c r="C12" s="13" t="s">
         <v>15</v>
       </c>
       <c r="D12" s="6" t="s">
@@ -2629,17 +2642,17 @@
       <c r="E12" s="10" t="s">
         <v>356</v>
       </c>
-      <c r="F12" s="15" t="s">
+      <c r="F12" s="13" t="s">
         <v>355</v>
       </c>
-      <c r="I12" s="15"/>
+      <c r="I12" s="13"/>
       <c r="J12" s="8" t="s">
         <v>169</v>
       </c>
       <c r="K12" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="L12" s="15" t="s">
+      <c r="L12" s="13" t="s">
         <v>171</v>
       </c>
       <c r="M12" s="11" t="s">
@@ -2648,7 +2661,7 @@
       <c r="N12" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="O12" s="14" t="s">
+      <c r="O12" s="13" t="s">
         <v>15</v>
       </c>
       <c r="P12" s="8" t="s">
@@ -2657,7 +2670,7 @@
       <c r="Q12" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="R12" s="15" t="s">
+      <c r="R12" s="13" t="s">
         <v>373</v>
       </c>
       <c r="S12" s="8" t="s">
@@ -2672,7 +2685,7 @@
       <c r="W12" s="8" t="s">
         <v>177</v>
       </c>
-      <c r="X12" s="14" t="s">
+      <c r="X12" s="13" t="s">
         <v>102</v>
       </c>
     </row>
@@ -2683,7 +2696,7 @@
       <c r="B13" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="C13" s="15" t="s">
+      <c r="C13" s="13" t="s">
         <v>180</v>
       </c>
       <c r="D13" s="5" t="s">
@@ -2692,7 +2705,7 @@
       <c r="E13" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="F13" s="15" t="s">
+      <c r="F13" s="13" t="s">
         <v>183</v>
       </c>
       <c r="J13" s="8" t="s">
@@ -2701,7 +2714,7 @@
       <c r="K13" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="L13" s="15" t="s">
+      <c r="L13" s="13" t="s">
         <v>186</v>
       </c>
       <c r="M13" s="8" t="s">
@@ -2710,7 +2723,7 @@
       <c r="N13" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="O13" s="14" t="s">
+      <c r="O13" s="13" t="s">
         <v>189</v>
       </c>
       <c r="P13" s="11" t="s">
@@ -2719,7 +2732,7 @@
       <c r="Q13" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="R13" s="15" t="s">
+      <c r="R13" s="13" t="s">
         <v>191</v>
       </c>
       <c r="S13" s="11" t="s">
@@ -2734,7 +2747,7 @@
       <c r="W13" s="8" t="s">
         <v>193</v>
       </c>
-      <c r="X13" s="13" t="s">
+      <c r="X13" s="12" t="s">
         <v>420</v>
       </c>
     </row>
@@ -2745,7 +2758,7 @@
       <c r="B14" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="C14" s="15" t="s">
+      <c r="C14" s="13" t="s">
         <v>196</v>
       </c>
       <c r="D14" s="7" t="s">
@@ -2754,7 +2767,7 @@
       <c r="E14" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="F14" s="15" t="s">
+      <c r="F14" s="13" t="s">
         <v>199</v>
       </c>
       <c r="J14" s="9" t="s">
@@ -2763,7 +2776,7 @@
       <c r="K14" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="L14" s="15" t="s">
+      <c r="L14" s="13" t="s">
         <v>15</v>
       </c>
       <c r="M14" s="9" t="s">
@@ -2772,7 +2785,7 @@
       <c r="N14" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="O14" s="14" t="s">
+      <c r="O14" s="13" t="s">
         <v>368</v>
       </c>
       <c r="P14" s="11" t="s">
@@ -2781,7 +2794,7 @@
       <c r="Q14" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="R14" s="15" t="s">
+      <c r="R14" s="13" t="s">
         <v>375</v>
       </c>
       <c r="S14" s="8" t="s">
@@ -2796,7 +2809,7 @@
       <c r="W14" s="8" t="s">
         <v>206</v>
       </c>
-      <c r="X14" s="13"/>
+      <c r="X14" s="12"/>
     </row>
     <row r="15" spans="1:25" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A15" s="5" t="s">
@@ -2805,7 +2818,7 @@
       <c r="B15" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="C15" s="15" t="s">
+      <c r="C15" s="13" t="s">
         <v>209</v>
       </c>
       <c r="D15" s="5" t="s">
@@ -2814,7 +2827,7 @@
       <c r="E15" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="F15" s="15" t="s">
+      <c r="F15" s="13" t="s">
         <v>15</v>
       </c>
       <c r="J15" s="8" t="s">
@@ -2823,7 +2836,7 @@
       <c r="K15" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="L15" s="15" t="s">
+      <c r="L15" s="13" t="s">
         <v>26</v>
       </c>
       <c r="M15" s="9" t="s">
@@ -2832,7 +2845,7 @@
       <c r="N15" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="O15" s="14" t="s">
+      <c r="O15" s="13" t="s">
         <v>216</v>
       </c>
       <c r="P15" s="9" t="s">
@@ -2841,7 +2854,7 @@
       <c r="Q15" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="R15" s="15" t="s">
+      <c r="R15" s="13" t="s">
         <v>219</v>
       </c>
       <c r="S15" s="8" t="s">
@@ -2856,7 +2869,7 @@
       <c r="W15" s="8" t="s">
         <v>221</v>
       </c>
-      <c r="X15" s="15" t="s">
+      <c r="X15" s="13" t="s">
         <v>421</v>
       </c>
     </row>
@@ -2867,7 +2880,7 @@
       <c r="B16" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="C16" s="15" t="s">
+      <c r="C16" s="13" t="s">
         <v>224</v>
       </c>
       <c r="D16" s="5" t="s">
@@ -2876,7 +2889,7 @@
       <c r="E16" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="F16" s="15" t="s">
+      <c r="F16" s="13" t="s">
         <v>15</v>
       </c>
       <c r="J16" s="8" t="s">
@@ -2885,7 +2898,7 @@
       <c r="K16" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="L16" s="15" t="s">
+      <c r="L16" s="13" t="s">
         <v>15</v>
       </c>
       <c r="M16" s="8" t="s">
@@ -2894,7 +2907,7 @@
       <c r="N16" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="O16" s="14" t="s">
+      <c r="O16" s="13" t="s">
         <v>368</v>
       </c>
       <c r="P16" s="11" t="s">
@@ -2903,7 +2916,7 @@
       <c r="Q16" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="R16" s="15" t="s">
+      <c r="R16" s="13" t="s">
         <v>26</v>
       </c>
       <c r="S16" s="8" t="s">
@@ -2927,7 +2940,7 @@
       <c r="B17" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="C17" s="15" t="s">
+      <c r="C17" s="13" t="s">
         <v>237</v>
       </c>
       <c r="D17" s="5" t="s">
@@ -2936,7 +2949,7 @@
       <c r="E17" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="F17" s="15" t="s">
+      <c r="F17" s="13" t="s">
         <v>15</v>
       </c>
       <c r="J17" s="8" t="s">
@@ -2945,7 +2958,7 @@
       <c r="K17" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="L17" s="15" t="s">
+      <c r="L17" s="13" t="s">
         <v>26</v>
       </c>
       <c r="M17" s="9" t="s">
@@ -2954,7 +2967,7 @@
       <c r="N17" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="O17" s="14" t="s">
+      <c r="O17" s="13" t="s">
         <v>244</v>
       </c>
       <c r="P17" s="11" t="s">
@@ -2963,7 +2976,7 @@
       <c r="Q17" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="R17" s="15" t="s">
+      <c r="R17" s="13" t="s">
         <v>15</v>
       </c>
       <c r="S17" s="8" t="s">
@@ -2987,7 +3000,7 @@
       <c r="B18" s="4" t="s">
         <v>347</v>
       </c>
-      <c r="C18" s="15" t="s">
+      <c r="C18" s="13" t="s">
         <v>348</v>
       </c>
       <c r="D18" s="7" t="s">
@@ -2996,7 +3009,7 @@
       <c r="E18" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="F18" s="15" t="s">
+      <c r="F18" s="13" t="s">
         <v>15</v>
       </c>
       <c r="J18" s="9" t="s">
@@ -3005,7 +3018,7 @@
       <c r="K18" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="L18" s="15" t="s">
+      <c r="L18" s="13" t="s">
         <v>252</v>
       </c>
       <c r="M18" s="9" t="s">
@@ -3014,7 +3027,7 @@
       <c r="N18" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="O18" s="14" t="s">
+      <c r="O18" s="13" t="s">
         <v>255</v>
       </c>
       <c r="P18" s="11" t="s">
@@ -3023,7 +3036,7 @@
       <c r="Q18" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="R18" s="15" t="s">
+      <c r="R18" s="13" t="s">
         <v>171</v>
       </c>
       <c r="S18" s="8" t="s">
@@ -3052,7 +3065,7 @@
       <c r="B19" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="C19" s="15" t="s">
+      <c r="C19" s="13" t="s">
         <v>349</v>
       </c>
       <c r="D19" s="5" t="s">
@@ -3061,7 +3074,7 @@
       <c r="E19" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="F19" s="15" t="s">
+      <c r="F19" s="13" t="s">
         <v>359</v>
       </c>
       <c r="J19" s="8" t="s">
@@ -3070,7 +3083,7 @@
       <c r="K19" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="L19" s="15" t="s">
+      <c r="L19" s="13" t="s">
         <v>171</v>
       </c>
       <c r="M19" s="8" t="s">
@@ -3079,7 +3092,7 @@
       <c r="N19" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="O19" s="14" t="s">
+      <c r="O19" s="13" t="s">
         <v>367</v>
       </c>
       <c r="P19" s="11" t="s">
@@ -3088,7 +3101,7 @@
       <c r="Q19" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="R19" s="15" t="s">
+      <c r="R19" s="13" t="s">
         <v>267</v>
       </c>
       <c r="S19" s="8" t="s">
@@ -3108,7 +3121,7 @@
       <c r="B20" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="C20" s="15" t="s">
+      <c r="C20" s="13" t="s">
         <v>271</v>
       </c>
       <c r="D20" s="6" t="s">
@@ -3117,7 +3130,7 @@
       <c r="E20" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="F20" s="16" t="s">
+      <c r="F20" s="14" t="s">
         <v>273</v>
       </c>
       <c r="J20" s="8" t="s">
@@ -3126,7 +3139,7 @@
       <c r="K20" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="L20" s="15" t="s">
+      <c r="L20" s="13" t="s">
         <v>171</v>
       </c>
       <c r="M20" s="8" t="s">
@@ -3135,7 +3148,7 @@
       <c r="N20" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="O20" s="14" t="s">
+      <c r="O20" s="13" t="s">
         <v>366</v>
       </c>
       <c r="P20" s="9" t="s">
@@ -3144,7 +3157,7 @@
       <c r="Q20" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="R20" s="15" t="s">
+      <c r="R20" s="13" t="s">
         <v>280</v>
       </c>
       <c r="S20" s="9" t="s">
@@ -3164,7 +3177,7 @@
       <c r="B21" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="C21" s="15" t="s">
+      <c r="C21" s="13" t="s">
         <v>285</v>
       </c>
       <c r="D21" s="5" t="s">
@@ -3173,7 +3186,7 @@
       <c r="E21" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="F21" s="16" t="s">
+      <c r="F21" s="14" t="s">
         <v>273</v>
       </c>
       <c r="J21" s="8" t="s">
@@ -3182,7 +3195,7 @@
       <c r="K21" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="L21" s="15" t="s">
+      <c r="L21" s="13" t="s">
         <v>372</v>
       </c>
       <c r="M21" s="11" t="s">
@@ -3191,7 +3204,7 @@
       <c r="N21" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="O21" s="14" t="s">
+      <c r="O21" s="13" t="s">
         <v>15</v>
       </c>
       <c r="P21" s="9" t="s">
@@ -3200,7 +3213,7 @@
       <c r="Q21" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="R21" s="15" t="s">
+      <c r="R21" s="13" t="s">
         <v>171</v>
       </c>
       <c r="S21" s="8" t="s">
@@ -3220,7 +3233,7 @@
       <c r="B22" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="C22" s="15" t="s">
+      <c r="C22" s="13" t="s">
         <v>297</v>
       </c>
       <c r="D22" s="5" t="s">
@@ -3229,7 +3242,7 @@
       <c r="E22" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="F22" s="15" t="s">
+      <c r="F22" s="13" t="s">
         <v>15</v>
       </c>
       <c r="J22" s="9" t="s">
@@ -3238,7 +3251,7 @@
       <c r="K22" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="L22" s="15" t="s">
+      <c r="L22" s="13" t="s">
         <v>302</v>
       </c>
       <c r="M22" s="9" t="s">
@@ -3247,7 +3260,7 @@
       <c r="N22" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="O22" s="14" t="s">
+      <c r="O22" s="13" t="s">
         <v>305</v>
       </c>
       <c r="P22" s="9" t="s">
@@ -3256,7 +3269,7 @@
       <c r="Q22" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="R22" s="15" t="s">
+      <c r="R22" s="13" t="s">
         <v>15</v>
       </c>
       <c r="S22" s="8" t="s">
@@ -3276,7 +3289,7 @@
       <c r="B23" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="C23" s="15" t="s">
+      <c r="C23" s="13" t="s">
         <v>312</v>
       </c>
       <c r="D23" s="6" t="s">
@@ -3285,7 +3298,7 @@
       <c r="E23" s="3" t="s">
         <v>313</v>
       </c>
-      <c r="F23" s="16" t="s">
+      <c r="F23" s="14" t="s">
         <v>314</v>
       </c>
       <c r="J23" s="8" t="s">
@@ -3294,10 +3307,10 @@
       <c r="K23" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="L23" s="15" t="s">
+      <c r="L23" s="13" t="s">
         <v>316</v>
       </c>
-      <c r="O23" s="15" t="s">
+      <c r="O23" s="13" t="s">
         <v>369</v>
       </c>
       <c r="P23" s="9" t="s">
@@ -3306,7 +3319,7 @@
       <c r="Q23" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="R23" s="15" t="s">
+      <c r="R23" s="13" t="s">
         <v>171</v>
       </c>
       <c r="S23" s="8" t="s">
@@ -3326,7 +3339,7 @@
       <c r="B24" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="C24" s="15" t="s">
+      <c r="C24" s="13" t="s">
         <v>350</v>
       </c>
       <c r="D24" s="7" t="s">
@@ -3335,7 +3348,7 @@
       <c r="E24" s="3" t="s">
         <v>322</v>
       </c>
-      <c r="F24" s="15" t="s">
+      <c r="F24" s="13" t="s">
         <v>323</v>
       </c>
       <c r="J24" s="8" t="s">
@@ -3344,7 +3357,7 @@
       <c r="K24" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="L24" s="15" t="s">
+      <c r="L24" s="13" t="s">
         <v>171</v>
       </c>
       <c r="P24" s="8" t="s">
@@ -3353,7 +3366,7 @@
       <c r="Q24" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="R24" s="15" t="s">
+      <c r="R24" s="13" t="s">
         <v>171</v>
       </c>
       <c r="S24" s="9" t="s">
@@ -3373,7 +3386,7 @@
       <c r="B25" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="C25" s="15" t="s">
+      <c r="C25" s="13" t="s">
         <v>332</v>
       </c>
       <c r="D25" s="7" t="s">
@@ -3382,7 +3395,7 @@
       <c r="E25" s="3" t="s">
         <v>334</v>
       </c>
-      <c r="F25" s="15" t="s">
+      <c r="F25" s="13" t="s">
         <v>335</v>
       </c>
       <c r="J25" s="9" t="s">
@@ -3391,10 +3404,10 @@
       <c r="K25" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="L25" s="15" t="s">
+      <c r="L25" s="13" t="s">
         <v>171</v>
       </c>
-      <c r="R25" s="15" t="s">
+      <c r="R25" s="13" t="s">
         <v>337</v>
       </c>
       <c r="U25" s="8" t="s">
@@ -3403,23 +3416,23 @@
     </row>
     <row r="26" spans="1:24" s="1" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A26" s="7"/>
-      <c r="C26" s="15" t="s">
+      <c r="C26" s="13" t="s">
         <v>339</v>
       </c>
       <c r="D26" s="7"/>
-      <c r="F26" s="15" t="s">
+      <c r="F26" s="13" t="s">
         <v>340</v>
       </c>
       <c r="G26" s="7"/>
-      <c r="I26" s="15"/>
+      <c r="I26" s="13"/>
       <c r="J26" s="7"/>
-      <c r="L26" s="15" t="s">
+      <c r="L26" s="13" t="s">
         <v>341</v>
       </c>
       <c r="M26" s="7"/>
-      <c r="O26" s="15"/>
+      <c r="O26" s="13"/>
       <c r="P26" s="7"/>
-      <c r="R26" s="15"/>
+      <c r="R26" s="13"/>
       <c r="S26" s="7"/>
       <c r="U26" s="7" t="s">
         <v>342</v>
@@ -3434,6 +3447,9 @@
     <row r="28" spans="1:24" x14ac:dyDescent="0.15">
       <c r="U28" s="8" t="s">
         <v>344</v>
+      </c>
+      <c r="V28" s="3" t="s">
+        <v>431</v>
       </c>
     </row>
     <row r="29" spans="1:24" x14ac:dyDescent="0.15">
